--- a/Python/albums/albums2021-07-16.xlsx
+++ b/Python/albums/albums2021-07-16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/639bf7244fb43c55/Desktop/Albums/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nosni\Local Documents\Github\TidalPythonAPI\Python\albums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_18526649FF02ACEB551E7373E998FF39512D5529" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C811D5-F07B-461E-B741-079208D0F8B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6DFCBD-F048-4C94-A6EE-98B13920EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18015" yWindow="-2910" windowWidth="18030" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="albums" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">albums!$A$1:$N$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">albums!$A$1:$E$365</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2236,6221 +2236,6221 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N224" sqref="L224:N224"/>
+      <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="C2">
         <v>2019</v>
       </c>
-      <c r="M2">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="E2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="C3">
         <v>2012</v>
       </c>
-      <c r="M3">
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="E3">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="C4">
         <v>1999</v>
       </c>
-      <c r="M4">
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="E4">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="L5">
+      <c r="C5">
         <v>1999</v>
       </c>
-      <c r="M5">
+      <c r="D5">
         <v>23</v>
       </c>
-      <c r="N5">
+      <c r="E5">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="L6">
+      <c r="C6">
         <v>2018</v>
       </c>
-      <c r="M6">
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="N6">
+      <c r="E6">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="L7">
+      <c r="C7">
         <v>2014</v>
       </c>
-      <c r="M7">
+      <c r="D7">
         <v>13</v>
       </c>
-      <c r="N7">
+      <c r="E7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="C8">
         <v>2019</v>
       </c>
-      <c r="M8">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="N8">
+      <c r="E8">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="L9">
+      <c r="C9">
         <v>2018</v>
       </c>
-      <c r="M9">
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="N9">
+      <c r="E9">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="L10">
+      <c r="C10">
         <v>2016</v>
       </c>
-      <c r="M10">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="N10">
+      <c r="E10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="L11">
+      <c r="C11">
         <v>2017</v>
       </c>
-      <c r="M11">
+      <c r="D11">
         <v>13</v>
       </c>
-      <c r="N11">
+      <c r="E11">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="L12">
+      <c r="C12">
         <v>2013</v>
       </c>
-      <c r="M12">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="N12">
+      <c r="E12">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="L13">
+      <c r="C13">
         <v>1999</v>
       </c>
-      <c r="M13">
+      <c r="D13">
         <v>14</v>
       </c>
-      <c r="N13">
+      <c r="E13">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="L14">
+      <c r="C14">
         <v>2016</v>
       </c>
-      <c r="M14">
+      <c r="D14">
         <v>15</v>
       </c>
-      <c r="N14">
+      <c r="E14">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="L15">
+      <c r="C15">
         <v>2019</v>
       </c>
-      <c r="M15">
+      <c r="D15">
         <v>19</v>
       </c>
-      <c r="N15">
+      <c r="E15">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="L16">
+      <c r="C16">
         <v>1976</v>
       </c>
-      <c r="M16">
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="N16">
+      <c r="E16">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="L17">
+      <c r="C17">
         <v>2018</v>
       </c>
-      <c r="M17">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="N17">
+      <c r="E17">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="L18">
+      <c r="C18">
         <v>2020</v>
       </c>
-      <c r="M18">
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="N18">
+      <c r="E18">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="L19">
+      <c r="C19">
         <v>2017</v>
       </c>
-      <c r="M19">
+      <c r="D19">
         <v>12</v>
       </c>
-      <c r="N19">
+      <c r="E19">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="L20">
+      <c r="C20">
         <v>1996</v>
       </c>
-      <c r="M20">
+      <c r="D20">
         <v>27</v>
       </c>
-      <c r="N20">
+      <c r="E20">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="L21">
+      <c r="C21">
         <v>2008</v>
       </c>
-      <c r="M21">
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="N21">
+      <c r="E21">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="L22">
+      <c r="C22">
         <v>2001</v>
       </c>
-      <c r="M22">
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="N22">
+      <c r="E22">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="L23">
+      <c r="C23">
         <v>2019</v>
       </c>
-      <c r="M23">
+      <c r="D23">
         <v>18</v>
       </c>
-      <c r="N23">
+      <c r="E23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="L24">
+      <c r="C24">
         <v>2013</v>
       </c>
-      <c r="M24">
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="N24">
+      <c r="E24">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="L25">
+      <c r="C25">
         <v>2019</v>
       </c>
-      <c r="M25">
+      <c r="D25">
         <v>11</v>
       </c>
-      <c r="N25">
+      <c r="E25">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="L26">
+      <c r="C26">
         <v>2017</v>
       </c>
-      <c r="M26">
+      <c r="D26">
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="E26">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="L27">
+      <c r="C27">
         <v>2014</v>
       </c>
-      <c r="M27">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="N27">
+      <c r="E27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="L28">
+      <c r="C28">
         <v>2018</v>
       </c>
-      <c r="M28">
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="N28">
+      <c r="E28">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="L29">
+      <c r="C29">
         <v>2016</v>
       </c>
-      <c r="M29">
+      <c r="D29">
         <v>15</v>
       </c>
-      <c r="N29">
+      <c r="E29">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="L30">
+      <c r="C30">
         <v>2007</v>
       </c>
-      <c r="M30">
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="N30">
+      <c r="E30">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="L31">
+      <c r="C31">
         <v>2016</v>
       </c>
-      <c r="M31">
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="N31">
+      <c r="E31">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="L32">
+      <c r="C32">
         <v>2016</v>
       </c>
-      <c r="M32">
+      <c r="D32">
         <v>13</v>
       </c>
-      <c r="N32">
+      <c r="E32">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="L33">
+      <c r="C33">
         <v>2013</v>
       </c>
-      <c r="M33">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="N33">
+      <c r="E33">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="L34">
+      <c r="C34">
         <v>2016</v>
       </c>
-      <c r="M34">
+      <c r="D34">
         <v>14</v>
       </c>
-      <c r="N34">
+      <c r="E34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="L35">
+      <c r="C35">
         <v>2019</v>
       </c>
-      <c r="M35">
+      <c r="D35">
         <v>15</v>
       </c>
-      <c r="N35">
+      <c r="E35">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="L36">
+      <c r="C36">
         <v>1996</v>
       </c>
-      <c r="M36">
+      <c r="D36">
         <v>15</v>
       </c>
-      <c r="N36">
+      <c r="E36">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="L37">
+      <c r="C37">
         <v>2017</v>
       </c>
-      <c r="M37">
+      <c r="D37">
         <v>17</v>
       </c>
-      <c r="N37">
+      <c r="E37">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="L38">
+      <c r="C38">
         <v>2018</v>
       </c>
-      <c r="M38">
+      <c r="D38">
         <v>14</v>
       </c>
-      <c r="N38">
+      <c r="E38">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="L39">
+      <c r="C39">
         <v>2021</v>
       </c>
-      <c r="M39">
+      <c r="D39">
         <v>11</v>
       </c>
-      <c r="N39">
+      <c r="E39">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="L40">
+      <c r="C40">
         <v>2017</v>
       </c>
-      <c r="M40">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="N40">
+      <c r="E40">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="L41">
+      <c r="C41">
         <v>2018</v>
       </c>
-      <c r="M41">
+      <c r="D41">
         <v>13</v>
       </c>
-      <c r="N41">
+      <c r="E41">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="L42">
+      <c r="C42">
         <v>2018</v>
       </c>
-      <c r="M42">
+      <c r="D42">
         <v>22</v>
       </c>
-      <c r="N42">
+      <c r="E42">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="L43">
+      <c r="C43">
         <v>2017</v>
       </c>
-      <c r="M43">
+      <c r="D43">
         <v>25</v>
       </c>
-      <c r="N43">
+      <c r="E43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="L44">
+      <c r="C44">
         <v>2018</v>
       </c>
-      <c r="M44">
+      <c r="D44">
         <v>7</v>
       </c>
-      <c r="N44">
+      <c r="E44">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="L45">
+      <c r="C45">
         <v>2009</v>
       </c>
-      <c r="M45">
+      <c r="D45">
         <v>21</v>
       </c>
-      <c r="N45">
+      <c r="E45">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="L46">
+      <c r="C46">
         <v>2019</v>
       </c>
-      <c r="M46">
+      <c r="D46">
         <v>9</v>
       </c>
-      <c r="N46">
+      <c r="E46">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="L47">
+      <c r="C47">
         <v>2020</v>
       </c>
-      <c r="M47">
+      <c r="D47">
         <v>15</v>
       </c>
-      <c r="N47">
+      <c r="E47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
       <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="L48">
+      <c r="C48">
         <v>2018</v>
       </c>
-      <c r="M48">
+      <c r="D48">
         <v>8</v>
       </c>
-      <c r="N48">
+      <c r="E48">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="L49">
+      <c r="C49">
         <v>2017</v>
       </c>
-      <c r="M49">
+      <c r="D49">
         <v>13</v>
       </c>
-      <c r="N49">
+      <c r="E49">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="L50">
+      <c r="C50">
         <v>2019</v>
       </c>
-      <c r="M50">
+      <c r="D50">
         <v>17</v>
       </c>
-      <c r="N50">
+      <c r="E50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="L51">
+      <c r="C51">
         <v>2016</v>
       </c>
-      <c r="M51">
+      <c r="D51">
         <v>13</v>
       </c>
-      <c r="N51">
+      <c r="E51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
       </c>
-      <c r="L52">
+      <c r="C52">
         <v>2021</v>
       </c>
-      <c r="M52">
+      <c r="D52">
         <v>16</v>
       </c>
-      <c r="N52">
+      <c r="E52">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="L53">
+      <c r="C53">
         <v>2018</v>
       </c>
-      <c r="M53">
+      <c r="D53">
         <v>10</v>
       </c>
-      <c r="N53">
+      <c r="E53">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="L54">
+      <c r="C54">
         <v>2015</v>
       </c>
-      <c r="M54">
+      <c r="D54">
         <v>11</v>
       </c>
-      <c r="N54">
+      <c r="E54">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>104</v>
       </c>
       <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="L55">
+      <c r="C55">
         <v>2019</v>
       </c>
-      <c r="M55">
+      <c r="D55">
         <v>8</v>
       </c>
-      <c r="N55">
+      <c r="E55">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>106</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="L56">
+      <c r="C56">
         <v>2018</v>
       </c>
-      <c r="M56">
+      <c r="D56">
         <v>9</v>
       </c>
-      <c r="N56">
+      <c r="E56">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="L57">
+      <c r="C57">
         <v>2019</v>
       </c>
-      <c r="M57">
+      <c r="D57">
         <v>13</v>
       </c>
-      <c r="N57">
+      <c r="E57">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>106</v>
       </c>
       <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="L58">
+      <c r="C58">
         <v>2018</v>
       </c>
-      <c r="M58">
+      <c r="D58">
         <v>21</v>
       </c>
-      <c r="N58">
+      <c r="E58">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="L59">
+      <c r="C59">
         <v>2014</v>
       </c>
-      <c r="M59">
+      <c r="D59">
         <v>14</v>
       </c>
-      <c r="N59">
+      <c r="E59">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>113</v>
       </c>
-      <c r="L60">
+      <c r="C60">
         <v>2020</v>
       </c>
-      <c r="M60">
+      <c r="D60">
         <v>12</v>
       </c>
-      <c r="N60">
+      <c r="E60">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="L61">
+      <c r="C61">
         <v>2020</v>
       </c>
-      <c r="M61">
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="N61">
+      <c r="E61">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
       </c>
-      <c r="L62">
+      <c r="C62">
         <v>2014</v>
       </c>
-      <c r="M62">
+      <c r="D62">
         <v>6</v>
       </c>
-      <c r="N62">
+      <c r="E62">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="L63">
+      <c r="C63">
         <v>2019</v>
       </c>
-      <c r="M63">
+      <c r="D63">
         <v>12</v>
       </c>
-      <c r="N63">
+      <c r="E63">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
       <c r="B64" t="s">
         <v>121</v>
       </c>
-      <c r="L64">
+      <c r="C64">
         <v>2006</v>
       </c>
-      <c r="M64">
+      <c r="D64">
         <v>12</v>
       </c>
-      <c r="N64">
+      <c r="E64">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="L65">
+      <c r="C65">
         <v>2010</v>
       </c>
-      <c r="M65">
+      <c r="D65">
         <v>17</v>
       </c>
-      <c r="N65">
+      <c r="E65">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" t="s">
         <v>124</v>
       </c>
-      <c r="L66">
+      <c r="C66">
         <v>2015</v>
       </c>
-      <c r="M66">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="N66">
+      <c r="E66">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="L67">
+      <c r="C67">
         <v>1994</v>
       </c>
-      <c r="M67">
+      <c r="D67">
         <v>12</v>
       </c>
-      <c r="N67">
+      <c r="E67">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
       <c r="B68" t="s">
         <v>128</v>
       </c>
-      <c r="L68">
+      <c r="C68">
         <v>2017</v>
       </c>
-      <c r="M68">
+      <c r="D68">
         <v>14</v>
       </c>
-      <c r="N68">
+      <c r="E68">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
       <c r="B69" t="s">
         <v>130</v>
       </c>
-      <c r="L69">
+      <c r="C69">
         <v>2017</v>
       </c>
-      <c r="M69">
+      <c r="D69">
         <v>18</v>
       </c>
-      <c r="N69">
+      <c r="E69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
       <c r="B70" t="s">
         <v>132</v>
       </c>
-      <c r="L70">
+      <c r="C70">
         <v>2015</v>
       </c>
-      <c r="M70">
+      <c r="D70">
         <v>13</v>
       </c>
-      <c r="N70">
+      <c r="E70">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>133</v>
       </c>
       <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="L71">
+      <c r="C71">
         <v>2005</v>
       </c>
-      <c r="M71">
+      <c r="D71">
         <v>24</v>
       </c>
-      <c r="N71">
+      <c r="E71">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>135</v>
       </c>
       <c r="B72" t="s">
         <v>136</v>
       </c>
-      <c r="L72">
+      <c r="C72">
         <v>2021</v>
       </c>
-      <c r="M72">
+      <c r="D72">
         <v>14</v>
       </c>
-      <c r="N72">
+      <c r="E72">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>137</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
       </c>
-      <c r="L73">
+      <c r="C73">
         <v>2017</v>
       </c>
-      <c r="M73">
+      <c r="D73">
         <v>14</v>
       </c>
-      <c r="N73">
+      <c r="E73">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>139</v>
       </c>
       <c r="B74" t="s">
         <v>140</v>
       </c>
-      <c r="L74">
+      <c r="C74">
         <v>2014</v>
       </c>
-      <c r="M74">
+      <c r="D74">
         <v>13</v>
       </c>
-      <c r="N74">
+      <c r="E74">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>141</v>
       </c>
       <c r="B75" t="s">
         <v>142</v>
       </c>
-      <c r="L75">
+      <c r="C75">
         <v>2003</v>
       </c>
-      <c r="M75">
+      <c r="D75">
         <v>17</v>
       </c>
-      <c r="N75">
+      <c r="E75">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>143</v>
       </c>
       <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="L76">
+      <c r="C76">
         <v>2018</v>
       </c>
-      <c r="M76">
+      <c r="D76">
         <v>14</v>
       </c>
-      <c r="N76">
+      <c r="E76">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
       <c r="B77" t="s">
         <v>146</v>
       </c>
-      <c r="L77">
+      <c r="C77">
         <v>2018</v>
       </c>
-      <c r="M77">
+      <c r="D77">
         <v>12</v>
       </c>
-      <c r="N77">
+      <c r="E77">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>147</v>
       </c>
       <c r="B78" t="s">
         <v>148</v>
       </c>
-      <c r="L78">
+      <c r="C78">
         <v>2020</v>
       </c>
-      <c r="M78">
+      <c r="D78">
         <v>7</v>
       </c>
-      <c r="N78">
+      <c r="E78">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>149</v>
       </c>
       <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="L79">
+      <c r="C79">
         <v>1992</v>
       </c>
-      <c r="M79">
+      <c r="D79">
         <v>13</v>
       </c>
-      <c r="N79">
+      <c r="E79">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>151</v>
       </c>
       <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="L80">
+      <c r="C80">
         <v>2001</v>
       </c>
-      <c r="M80">
+      <c r="D80">
         <v>14</v>
       </c>
-      <c r="N80">
+      <c r="E80">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>153</v>
       </c>
       <c r="B81" t="s">
         <v>154</v>
       </c>
-      <c r="L81">
+      <c r="C81">
         <v>2006</v>
       </c>
-      <c r="M81">
+      <c r="D81">
         <v>31</v>
       </c>
-      <c r="N81">
+      <c r="E81">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
       <c r="B82" t="s">
         <v>156</v>
       </c>
-      <c r="L82">
+      <c r="C82">
         <v>1989</v>
       </c>
-      <c r="M82">
+      <c r="D82">
         <v>15</v>
       </c>
-      <c r="N82">
+      <c r="E82">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>157</v>
       </c>
       <c r="B83" t="s">
         <v>158</v>
       </c>
-      <c r="L83">
+      <c r="C83">
         <v>2013</v>
       </c>
-      <c r="M83">
+      <c r="D83">
         <v>15</v>
       </c>
-      <c r="N83">
+      <c r="E83">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>159</v>
       </c>
       <c r="B84" t="s">
         <v>160</v>
       </c>
-      <c r="L84">
+      <c r="C84">
         <v>1996</v>
       </c>
-      <c r="M84">
+      <c r="D84">
         <v>20</v>
       </c>
-      <c r="N84">
+      <c r="E84">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>161</v>
       </c>
       <c r="B85" t="s">
         <v>162</v>
       </c>
-      <c r="L85">
+      <c r="C85">
         <v>2020</v>
       </c>
-      <c r="M85">
+      <c r="D85">
         <v>5</v>
       </c>
-      <c r="N85">
+      <c r="E85">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>163</v>
       </c>
       <c r="B86" t="s">
         <v>164</v>
       </c>
-      <c r="L86">
+      <c r="C86">
         <v>2017</v>
       </c>
-      <c r="M86">
+      <c r="D86">
         <v>23</v>
       </c>
-      <c r="N86">
+      <c r="E86">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>165</v>
       </c>
       <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="L87">
+      <c r="C87">
         <v>1972</v>
       </c>
-      <c r="M87">
+      <c r="D87">
         <v>9</v>
       </c>
-      <c r="N87">
+      <c r="E87">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>167</v>
       </c>
       <c r="B88" t="s">
         <v>168</v>
       </c>
-      <c r="L88">
+      <c r="C88">
         <v>1999</v>
       </c>
-      <c r="M88">
+      <c r="D88">
         <v>12</v>
       </c>
-      <c r="N88">
+      <c r="E88">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>169</v>
       </c>
       <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="L89">
+      <c r="C89">
         <v>1996</v>
       </c>
-      <c r="M89">
+      <c r="D89">
         <v>16</v>
       </c>
-      <c r="N89">
+      <c r="E89">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>171</v>
       </c>
       <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="L90">
+      <c r="C90">
         <v>2019</v>
       </c>
-      <c r="M90">
+      <c r="D90">
         <v>13</v>
       </c>
-      <c r="N90">
+      <c r="E90">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
       <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="L91">
+      <c r="C91">
         <v>1976</v>
       </c>
-      <c r="M91">
+      <c r="D91">
         <v>10</v>
       </c>
-      <c r="N91">
+      <c r="E91">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>175</v>
       </c>
       <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="L92">
+      <c r="C92">
         <v>2019</v>
       </c>
-      <c r="M92">
+      <c r="D92">
         <v>19</v>
       </c>
-      <c r="N92">
+      <c r="E92">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>177</v>
       </c>
       <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="L93">
+      <c r="C93">
         <v>1996</v>
       </c>
-      <c r="M93">
+      <c r="D93">
         <v>11</v>
       </c>
-      <c r="N93">
+      <c r="E93">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>179</v>
       </c>
       <c r="B94" t="s">
         <v>180</v>
       </c>
-      <c r="L94">
+      <c r="C94">
         <v>2011</v>
       </c>
-      <c r="M94">
+      <c r="D94">
         <v>3</v>
       </c>
-      <c r="N94">
+      <c r="E94">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>181</v>
       </c>
       <c r="B95" t="s">
         <v>182</v>
       </c>
-      <c r="L95">
+      <c r="C95">
         <v>2021</v>
       </c>
-      <c r="M95">
+      <c r="D95">
         <v>27</v>
       </c>
-      <c r="N95">
+      <c r="E95">
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
       <c r="B96" t="s">
         <v>183</v>
       </c>
-      <c r="L96">
+      <c r="C96">
         <v>2017</v>
       </c>
-      <c r="M96">
+      <c r="D96">
         <v>11</v>
       </c>
-      <c r="N96">
+      <c r="E96">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
       <c r="B97" t="s">
         <v>185</v>
       </c>
-      <c r="L97">
+      <c r="C97">
         <v>2017</v>
       </c>
-      <c r="M97">
+      <c r="D97">
         <v>9</v>
       </c>
-      <c r="N97">
+      <c r="E97">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>186</v>
       </c>
       <c r="B98" t="s">
         <v>187</v>
       </c>
-      <c r="L98">
+      <c r="C98">
         <v>2020</v>
       </c>
-      <c r="M98">
+      <c r="D98">
         <v>13</v>
       </c>
-      <c r="N98">
+      <c r="E98">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>188</v>
       </c>
       <c r="B99" t="s">
         <v>189</v>
       </c>
-      <c r="L99">
+      <c r="C99">
         <v>2021</v>
       </c>
-      <c r="M99">
+      <c r="D99">
         <v>11</v>
       </c>
-      <c r="N99">
+      <c r="E99">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>190</v>
       </c>
       <c r="B100" t="s">
         <v>191</v>
       </c>
-      <c r="L100">
+      <c r="C100">
         <v>2019</v>
       </c>
-      <c r="M100">
+      <c r="D100">
         <v>6</v>
       </c>
-      <c r="N100">
+      <c r="E100">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>192</v>
       </c>
       <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="L101">
+      <c r="C101">
         <v>1980</v>
       </c>
-      <c r="M101">
+      <c r="D101">
         <v>15</v>
       </c>
-      <c r="N101">
+      <c r="E101">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>194</v>
       </c>
       <c r="B102" t="s">
         <v>195</v>
       </c>
-      <c r="L102">
+      <c r="C102">
         <v>2011</v>
       </c>
-      <c r="M102">
+      <c r="D102">
         <v>11</v>
       </c>
-      <c r="N102">
+      <c r="E102">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>196</v>
       </c>
       <c r="B103" t="s">
         <v>197</v>
       </c>
-      <c r="L103">
+      <c r="C103">
         <v>2003</v>
       </c>
-      <c r="M103">
+      <c r="D103">
         <v>20</v>
       </c>
-      <c r="N103">
+      <c r="E103">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>198</v>
       </c>
       <c r="B104" t="s">
         <v>199</v>
       </c>
-      <c r="L104">
+      <c r="C104">
         <v>2011</v>
       </c>
-      <c r="M104">
+      <c r="D104">
         <v>12</v>
       </c>
-      <c r="N104">
+      <c r="E104">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>200</v>
       </c>
       <c r="B105" t="s">
         <v>201</v>
       </c>
-      <c r="L105">
+      <c r="C105">
         <v>2012</v>
       </c>
-      <c r="M105">
+      <c r="D105">
         <v>14</v>
       </c>
-      <c r="N105">
+      <c r="E105">
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>202</v>
       </c>
       <c r="B106" t="s">
         <v>203</v>
       </c>
-      <c r="L106">
+      <c r="C106">
         <v>1973</v>
       </c>
-      <c r="M106">
+      <c r="D106">
         <v>17</v>
       </c>
-      <c r="N106">
+      <c r="E106">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>137</v>
       </c>
       <c r="B107" t="s">
         <v>204</v>
       </c>
-      <c r="L107">
+      <c r="C107">
         <v>2012</v>
       </c>
-      <c r="M107">
+      <c r="D107">
         <v>17</v>
       </c>
-      <c r="N107">
+      <c r="E107">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>205</v>
       </c>
       <c r="B108" t="s">
         <v>206</v>
       </c>
-      <c r="L108">
+      <c r="C108">
         <v>2004</v>
       </c>
-      <c r="M108">
+      <c r="D108">
         <v>16</v>
       </c>
-      <c r="N108">
+      <c r="E108">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>161</v>
       </c>
       <c r="B109" t="s">
         <v>207</v>
       </c>
-      <c r="L109">
+      <c r="C109">
         <v>2019</v>
       </c>
-      <c r="M109">
+      <c r="D109">
         <v>10</v>
       </c>
-      <c r="N109">
+      <c r="E109">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>208</v>
       </c>
       <c r="B110" t="s">
         <v>209</v>
       </c>
-      <c r="L110">
+      <c r="C110">
         <v>2005</v>
       </c>
-      <c r="M110">
+      <c r="D110">
         <v>12</v>
       </c>
-      <c r="N110">
+      <c r="E110">
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>210</v>
       </c>
       <c r="B111" t="s">
         <v>211</v>
       </c>
-      <c r="L111">
+      <c r="C111">
         <v>1996</v>
       </c>
-      <c r="M111">
+      <c r="D111">
         <v>14</v>
       </c>
-      <c r="N111">
+      <c r="E111">
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>212</v>
       </c>
       <c r="B112" t="s">
         <v>213</v>
       </c>
-      <c r="L112">
+      <c r="C112">
         <v>2011</v>
       </c>
-      <c r="M112">
+      <c r="D112">
         <v>12</v>
       </c>
-      <c r="N112">
+      <c r="E112">
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>214</v>
       </c>
       <c r="B113" t="s">
         <v>215</v>
       </c>
-      <c r="L113">
+      <c r="C113">
         <v>2019</v>
       </c>
-      <c r="M113">
+      <c r="D113">
         <v>12</v>
       </c>
-      <c r="N113">
+      <c r="E113">
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>216</v>
       </c>
       <c r="B114" t="s">
         <v>217</v>
       </c>
-      <c r="L114">
+      <c r="C114">
         <v>2002</v>
       </c>
-      <c r="M114">
+      <c r="D114">
         <v>12</v>
       </c>
-      <c r="N114">
+      <c r="E114">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>218</v>
       </c>
       <c r="B115" t="s">
         <v>219</v>
       </c>
-      <c r="L115">
+      <c r="C115">
         <v>2017</v>
       </c>
-      <c r="M115">
+      <c r="D115">
         <v>10</v>
       </c>
-      <c r="N115">
+      <c r="E115">
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>220</v>
       </c>
       <c r="B116" t="s">
         <v>221</v>
       </c>
-      <c r="L116">
+      <c r="C116">
         <v>2018</v>
       </c>
-      <c r="M116">
+      <c r="D116">
         <v>10</v>
       </c>
-      <c r="N116">
+      <c r="E116">
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>222</v>
       </c>
       <c r="B117" t="s">
         <v>223</v>
       </c>
-      <c r="L117">
+      <c r="C117">
         <v>2015</v>
       </c>
-      <c r="M117">
+      <c r="D117">
         <v>9</v>
       </c>
-      <c r="N117">
+      <c r="E117">
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>220</v>
       </c>
       <c r="B118" t="s">
         <v>224</v>
       </c>
-      <c r="L118">
+      <c r="C118">
         <v>2021</v>
       </c>
-      <c r="M118">
+      <c r="D118">
         <v>11</v>
       </c>
-      <c r="N118">
+      <c r="E118">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>225</v>
       </c>
       <c r="B119" t="s">
         <v>226</v>
       </c>
-      <c r="L119">
+      <c r="C119">
         <v>2016</v>
       </c>
-      <c r="M119">
+      <c r="D119">
         <v>14</v>
       </c>
-      <c r="N119">
+      <c r="E119">
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>227</v>
       </c>
       <c r="B120" t="s">
         <v>228</v>
       </c>
-      <c r="L120">
+      <c r="C120">
         <v>2011</v>
       </c>
-      <c r="M120">
+      <c r="D120">
         <v>22</v>
       </c>
-      <c r="N120">
+      <c r="E120">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>229</v>
       </c>
       <c r="B121" t="s">
         <v>230</v>
       </c>
-      <c r="L121">
+      <c r="C121">
         <v>2005</v>
       </c>
-      <c r="M121">
+      <c r="D121">
         <v>12</v>
       </c>
-      <c r="N121">
+      <c r="E121">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>231</v>
       </c>
       <c r="B122" t="s">
         <v>232</v>
       </c>
-      <c r="L122">
+      <c r="C122">
         <v>2019</v>
       </c>
-      <c r="M122">
+      <c r="D122">
         <v>7</v>
       </c>
-      <c r="N122">
+      <c r="E122">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>233</v>
       </c>
       <c r="B123" t="s">
         <v>234</v>
       </c>
-      <c r="L123">
+      <c r="C123">
         <v>2020</v>
       </c>
-      <c r="M123">
+      <c r="D123">
         <v>10</v>
       </c>
-      <c r="N123">
+      <c r="E123">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>157</v>
       </c>
       <c r="B124" t="s">
         <v>235</v>
       </c>
-      <c r="L124">
+      <c r="C124">
         <v>2015</v>
       </c>
-      <c r="M124">
+      <c r="D124">
         <v>10</v>
       </c>
-      <c r="N124">
+      <c r="E124">
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
       <c r="B125" t="s">
         <v>236</v>
       </c>
-      <c r="L125">
+      <c r="C125">
         <v>2019</v>
       </c>
-      <c r="M125">
+      <c r="D125">
         <v>12</v>
       </c>
-      <c r="N125">
+      <c r="E125">
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>237</v>
       </c>
       <c r="B126" t="s">
         <v>238</v>
       </c>
-      <c r="L126">
+      <c r="C126">
         <v>2011</v>
       </c>
-      <c r="M126">
+      <c r="D126">
         <v>19</v>
       </c>
-      <c r="N126">
+      <c r="E126">
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>239</v>
       </c>
       <c r="B127" t="s">
         <v>240</v>
       </c>
-      <c r="L127">
+      <c r="C127">
         <v>1994</v>
       </c>
-      <c r="M127">
+      <c r="D127">
         <v>10</v>
       </c>
-      <c r="N127">
+      <c r="E127">
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>241</v>
       </c>
       <c r="B128" t="s">
         <v>242</v>
       </c>
-      <c r="L128">
+      <c r="C128">
         <v>2015</v>
       </c>
-      <c r="M128">
+      <c r="D128">
         <v>11</v>
       </c>
-      <c r="N128">
+      <c r="E128">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>184</v>
       </c>
       <c r="B129" t="s">
         <v>243</v>
       </c>
-      <c r="L129">
+      <c r="C129">
         <v>2014</v>
       </c>
-      <c r="M129">
+      <c r="D129">
         <v>10</v>
       </c>
-      <c r="N129">
+      <c r="E129">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>244</v>
       </c>
       <c r="B130" t="s">
         <v>245</v>
       </c>
-      <c r="L130">
+      <c r="C130">
         <v>2017</v>
       </c>
-      <c r="M130">
+      <c r="D130">
         <v>10</v>
       </c>
-      <c r="N130">
+      <c r="E130">
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>246</v>
       </c>
       <c r="B131" t="s">
         <v>247</v>
       </c>
-      <c r="L131">
+      <c r="C131">
         <v>2020</v>
       </c>
-      <c r="M131">
+      <c r="D131">
         <v>10</v>
       </c>
-      <c r="N131">
+      <c r="E131">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>248</v>
       </c>
       <c r="B132" t="s">
         <v>249</v>
       </c>
-      <c r="L132">
+      <c r="C132">
         <v>2013</v>
       </c>
-      <c r="M132">
+      <c r="D132">
         <v>16</v>
       </c>
-      <c r="N132">
+      <c r="E132">
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>184</v>
       </c>
       <c r="B133" t="s">
         <v>250</v>
       </c>
-      <c r="L133">
+      <c r="C133">
         <v>2019</v>
       </c>
-      <c r="M133">
+      <c r="D133">
         <v>9</v>
       </c>
-      <c r="N133">
+      <c r="E133">
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>251</v>
       </c>
       <c r="B134" t="s">
         <v>252</v>
       </c>
-      <c r="L134">
+      <c r="C134">
         <v>2007</v>
       </c>
-      <c r="M134">
+      <c r="D134">
         <v>10</v>
       </c>
-      <c r="N134">
+      <c r="E134">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>253</v>
       </c>
       <c r="B135" t="s">
         <v>254</v>
       </c>
-      <c r="L135">
+      <c r="C135">
         <v>1998</v>
       </c>
-      <c r="M135">
+      <c r="D135">
         <v>11</v>
       </c>
-      <c r="N135">
+      <c r="E135">
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>255</v>
       </c>
       <c r="B136" t="s">
         <v>256</v>
       </c>
-      <c r="L136">
+      <c r="C136">
         <v>1993</v>
       </c>
-      <c r="M136">
+      <c r="D136">
         <v>12</v>
       </c>
-      <c r="N136">
+      <c r="E136">
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>257</v>
       </c>
       <c r="B137" t="s">
         <v>258</v>
       </c>
-      <c r="L137">
+      <c r="C137">
         <v>2002</v>
       </c>
-      <c r="M137">
+      <c r="D137">
         <v>16</v>
       </c>
-      <c r="N137">
+      <c r="E137">
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>259</v>
       </c>
       <c r="B138" t="s">
         <v>260</v>
       </c>
-      <c r="L138">
+      <c r="C138">
         <v>2018</v>
       </c>
-      <c r="M138">
+      <c r="D138">
         <v>15</v>
       </c>
-      <c r="N138">
+      <c r="E138">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
       <c r="B139" t="s">
         <v>261</v>
       </c>
-      <c r="L139">
+      <c r="C139">
         <v>2020</v>
       </c>
-      <c r="M139">
+      <c r="D139">
         <v>15</v>
       </c>
-      <c r="N139">
+      <c r="E139">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>262</v>
       </c>
       <c r="B140" t="s">
         <v>263</v>
       </c>
-      <c r="L140">
+      <c r="C140">
         <v>2016</v>
       </c>
-      <c r="M140">
+      <c r="D140">
         <v>11</v>
       </c>
-      <c r="N140">
+      <c r="E140">
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>264</v>
       </c>
       <c r="B141" t="s">
         <v>265</v>
       </c>
-      <c r="L141">
+      <c r="C141">
         <v>1991</v>
       </c>
-      <c r="M141">
+      <c r="D141">
         <v>14</v>
       </c>
-      <c r="N141">
+      <c r="E141">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>53</v>
       </c>
       <c r="B142" t="s">
         <v>266</v>
       </c>
-      <c r="L142">
+      <c r="C142">
         <v>2013</v>
       </c>
-      <c r="M142">
+      <c r="D142">
         <v>14</v>
       </c>
-      <c r="N142">
+      <c r="E142">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>31</v>
       </c>
       <c r="B143" t="s">
         <v>267</v>
       </c>
-      <c r="L143">
+      <c r="C143">
         <v>2018</v>
       </c>
-      <c r="M143">
+      <c r="D143">
         <v>12</v>
       </c>
-      <c r="N143">
+      <c r="E143">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>268</v>
       </c>
       <c r="B144" t="s">
         <v>268</v>
       </c>
-      <c r="L144">
+      <c r="C144">
         <v>2007</v>
       </c>
-      <c r="M144">
+      <c r="D144">
         <v>12</v>
       </c>
-      <c r="N144">
+      <c r="E144">
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>84</v>
       </c>
       <c r="B145" t="s">
         <v>269</v>
       </c>
-      <c r="L145">
+      <c r="C145">
         <v>2019</v>
       </c>
-      <c r="M145">
+      <c r="D145">
         <v>10</v>
       </c>
-      <c r="N145">
+      <c r="E145">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>270</v>
       </c>
       <c r="B146" t="s">
         <v>271</v>
       </c>
-      <c r="L146">
+      <c r="C146">
         <v>2011</v>
       </c>
-      <c r="M146">
+      <c r="D146">
         <v>9</v>
       </c>
-      <c r="N146">
+      <c r="E146">
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>272</v>
       </c>
       <c r="B147" t="s">
         <v>273</v>
       </c>
-      <c r="L147">
+      <c r="C147">
         <v>1983</v>
       </c>
-      <c r="M147">
+      <c r="D147">
         <v>9</v>
       </c>
-      <c r="N147">
+      <c r="E147">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>274</v>
       </c>
       <c r="B148" t="s">
         <v>275</v>
       </c>
-      <c r="L148">
+      <c r="C148">
         <v>1959</v>
       </c>
-      <c r="M148">
+      <c r="D148">
         <v>21</v>
       </c>
-      <c r="N148">
+      <c r="E148">
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>276</v>
       </c>
       <c r="B149" t="s">
         <v>277</v>
       </c>
-      <c r="L149">
+      <c r="C149">
         <v>2011</v>
       </c>
-      <c r="M149">
+      <c r="D149">
         <v>16</v>
       </c>
-      <c r="N149">
+      <c r="E149">
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
       <c r="B150" t="s">
         <v>278</v>
       </c>
-      <c r="L150">
+      <c r="C150">
         <v>2018</v>
       </c>
-      <c r="M150">
+      <c r="D150">
         <v>12</v>
       </c>
-      <c r="N150">
+      <c r="E150">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>279</v>
       </c>
       <c r="B151" t="s">
         <v>280</v>
       </c>
-      <c r="L151">
+      <c r="C151">
         <v>2001</v>
       </c>
-      <c r="M151">
+      <c r="D151">
         <v>14</v>
       </c>
-      <c r="N151">
+      <c r="E151">
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>281</v>
       </c>
       <c r="B152" t="s">
         <v>282</v>
       </c>
-      <c r="L152">
+      <c r="C152">
         <v>2017</v>
       </c>
-      <c r="M152">
+      <c r="D152">
         <v>12</v>
       </c>
-      <c r="N152">
+      <c r="E152">
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>114</v>
       </c>
       <c r="B153" t="s">
         <v>283</v>
       </c>
-      <c r="L153">
+      <c r="C153">
         <v>2019</v>
       </c>
-      <c r="M153">
+      <c r="D153">
         <v>14</v>
       </c>
-      <c r="N153">
+      <c r="E153">
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>188</v>
       </c>
       <c r="B154" t="s">
         <v>284</v>
       </c>
-      <c r="L154">
+      <c r="C154">
         <v>2012</v>
       </c>
-      <c r="M154">
+      <c r="D154">
         <v>11</v>
       </c>
-      <c r="N154">
+      <c r="E154">
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>285</v>
       </c>
       <c r="B155" t="s">
         <v>286</v>
       </c>
-      <c r="L155">
+      <c r="C155">
         <v>2016</v>
       </c>
-      <c r="M155">
+      <c r="D155">
         <v>12</v>
       </c>
-      <c r="N155">
+      <c r="E155">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>287</v>
       </c>
       <c r="B156" t="s">
         <v>288</v>
       </c>
-      <c r="L156">
+      <c r="C156">
         <v>2020</v>
       </c>
-      <c r="M156">
+      <c r="D156">
         <v>9</v>
       </c>
-      <c r="N156">
+      <c r="E156">
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>289</v>
       </c>
       <c r="B157" t="s">
         <v>290</v>
       </c>
-      <c r="L157">
+      <c r="C157">
         <v>2013</v>
       </c>
-      <c r="M157">
+      <c r="D157">
         <v>10</v>
       </c>
-      <c r="N157">
+      <c r="E157">
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>291</v>
       </c>
       <c r="B158" t="s">
         <v>292</v>
       </c>
-      <c r="L158">
+      <c r="C158">
         <v>1979</v>
       </c>
-      <c r="M158">
+      <c r="D158">
         <v>19</v>
       </c>
-      <c r="N158">
+      <c r="E158">
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>293</v>
       </c>
       <c r="B159" t="s">
         <v>294</v>
       </c>
-      <c r="L159">
+      <c r="C159">
         <v>2004</v>
       </c>
-      <c r="M159">
+      <c r="D159">
         <v>22</v>
       </c>
-      <c r="N159">
+      <c r="E159">
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>188</v>
       </c>
       <c r="B160" t="s">
         <v>295</v>
       </c>
-      <c r="L160">
+      <c r="C160">
         <v>2016</v>
       </c>
-      <c r="M160">
+      <c r="D160">
         <v>10</v>
       </c>
-      <c r="N160">
+      <c r="E160">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>296</v>
       </c>
       <c r="B161" t="s">
         <v>297</v>
       </c>
-      <c r="L161">
+      <c r="C161">
         <v>2019</v>
       </c>
-      <c r="M161">
+      <c r="D161">
         <v>10</v>
       </c>
-      <c r="N161">
+      <c r="E161">
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>25</v>
       </c>
       <c r="B162" t="s">
         <v>298</v>
       </c>
-      <c r="L162">
+      <c r="C162">
         <v>2020</v>
       </c>
-      <c r="M162">
+      <c r="D162">
         <v>14</v>
       </c>
-      <c r="N162">
+      <c r="E162">
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>299</v>
       </c>
       <c r="B163" t="s">
         <v>300</v>
       </c>
-      <c r="L163">
+      <c r="C163">
         <v>2014</v>
       </c>
-      <c r="M163">
+      <c r="D163">
         <v>9</v>
       </c>
-      <c r="N163">
+      <c r="E163">
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>301</v>
       </c>
       <c r="B164" t="s">
         <v>302</v>
       </c>
-      <c r="L164">
+      <c r="C164">
         <v>2017</v>
       </c>
-      <c r="M164">
+      <c r="D164">
         <v>13</v>
       </c>
-      <c r="N164">
+      <c r="E164">
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>303</v>
       </c>
       <c r="B165" t="s">
         <v>303</v>
       </c>
-      <c r="L165">
+      <c r="C165">
         <v>2018</v>
       </c>
-      <c r="M165">
+      <c r="D165">
         <v>11</v>
       </c>
-      <c r="N165">
+      <c r="E165">
         <v>88</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>304</v>
       </c>
       <c r="B166" t="s">
         <v>305</v>
       </c>
-      <c r="L166">
+      <c r="C166">
         <v>1977</v>
       </c>
-      <c r="M166">
+      <c r="D166">
         <v>8</v>
       </c>
-      <c r="N166">
+      <c r="E166">
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>306</v>
       </c>
       <c r="B167" t="s">
         <v>307</v>
       </c>
-      <c r="L167">
+      <c r="C167">
         <v>2015</v>
       </c>
-      <c r="M167">
+      <c r="D167">
         <v>13</v>
       </c>
-      <c r="N167">
+      <c r="E167">
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>40</v>
       </c>
       <c r="B168" t="s">
         <v>308</v>
       </c>
-      <c r="L168">
+      <c r="C168">
         <v>1995</v>
       </c>
-      <c r="M168">
+      <c r="D168">
         <v>15</v>
       </c>
-      <c r="N168">
+      <c r="E168">
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>309</v>
       </c>
       <c r="B169" t="s">
         <v>310</v>
       </c>
-      <c r="L169">
+      <c r="C169">
         <v>2015</v>
       </c>
-      <c r="M169">
+      <c r="D169">
         <v>10</v>
       </c>
-      <c r="N169">
+      <c r="E169">
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>311</v>
       </c>
       <c r="B170" t="s">
         <v>312</v>
       </c>
-      <c r="L170">
+      <c r="C170">
         <v>1995</v>
       </c>
-      <c r="M170">
+      <c r="D170">
         <v>28</v>
       </c>
-      <c r="N170">
+      <c r="E170">
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>313</v>
       </c>
       <c r="B171" t="s">
         <v>314</v>
       </c>
-      <c r="L171">
+      <c r="C171">
         <v>1968</v>
       </c>
-      <c r="M171">
+      <c r="D171">
         <v>6</v>
       </c>
-      <c r="N171">
+      <c r="E171">
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>229</v>
       </c>
       <c r="B172" t="s">
         <v>315</v>
       </c>
-      <c r="L172">
+      <c r="C172">
         <v>2005</v>
       </c>
-      <c r="M172">
+      <c r="D172">
         <v>11</v>
       </c>
-      <c r="N172">
+      <c r="E172">
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>102</v>
       </c>
       <c r="B173" t="s">
         <v>316</v>
       </c>
-      <c r="L173">
+      <c r="C173">
         <v>2003</v>
       </c>
-      <c r="M173">
+      <c r="D173">
         <v>15</v>
       </c>
-      <c r="N173">
+      <c r="E173">
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>317</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
       </c>
-      <c r="L174">
+      <c r="C174">
         <v>2020</v>
       </c>
-      <c r="M174">
+      <c r="D174">
         <v>12</v>
       </c>
-      <c r="N174">
+      <c r="E174">
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>319</v>
       </c>
       <c r="B175" t="s">
         <v>320</v>
       </c>
-      <c r="L175">
+      <c r="C175">
         <v>2017</v>
       </c>
-      <c r="M175">
+      <c r="D175">
         <v>12</v>
       </c>
-      <c r="N175">
+      <c r="E175">
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>321</v>
       </c>
       <c r="B176" t="s">
         <v>322</v>
       </c>
-      <c r="L176">
+      <c r="C176">
         <v>2020</v>
       </c>
-      <c r="M176">
+      <c r="D176">
         <v>20</v>
       </c>
-      <c r="N176">
+      <c r="E176">
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>323</v>
       </c>
       <c r="B177" t="s">
         <v>324</v>
       </c>
-      <c r="L177">
+      <c r="C177">
         <v>2011</v>
       </c>
-      <c r="M177">
+      <c r="D177">
         <v>24</v>
       </c>
-      <c r="N177">
+      <c r="E177">
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>325</v>
       </c>
       <c r="B178" t="s">
         <v>325</v>
       </c>
-      <c r="L178">
+      <c r="C178">
         <v>2016</v>
       </c>
-      <c r="M178">
+      <c r="D178">
         <v>10</v>
       </c>
-      <c r="N178">
+      <c r="E178">
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>326</v>
       </c>
       <c r="B179" t="s">
         <v>327</v>
       </c>
-      <c r="L179">
+      <c r="C179">
         <v>2019</v>
       </c>
-      <c r="M179">
+      <c r="D179">
         <v>14</v>
       </c>
-      <c r="N179">
+      <c r="E179">
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>88</v>
       </c>
       <c r="B180" t="s">
         <v>328</v>
       </c>
-      <c r="L180">
+      <c r="C180">
         <v>2004</v>
       </c>
-      <c r="M180">
+      <c r="D180">
         <v>15</v>
       </c>
-      <c r="N180">
+      <c r="E180">
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>329</v>
       </c>
       <c r="B181" t="s">
         <v>330</v>
       </c>
-      <c r="L181">
+      <c r="C181">
         <v>2011</v>
       </c>
-      <c r="M181">
+      <c r="D181">
         <v>4</v>
       </c>
-      <c r="N181">
+      <c r="E181">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>287</v>
       </c>
       <c r="B182" t="s">
         <v>287</v>
       </c>
-      <c r="L182">
+      <c r="C182">
         <v>2013</v>
       </c>
-      <c r="M182">
+      <c r="D182">
         <v>14</v>
       </c>
-      <c r="N182">
+      <c r="E182">
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>331</v>
       </c>
       <c r="B183" t="s">
         <v>332</v>
       </c>
-      <c r="L183">
+      <c r="C183">
         <v>1998</v>
       </c>
-      <c r="M183">
+      <c r="D183">
         <v>13</v>
       </c>
-      <c r="N183">
+      <c r="E183">
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>333</v>
       </c>
       <c r="B184" t="s">
         <v>334</v>
       </c>
-      <c r="L184">
+      <c r="C184">
         <v>1975</v>
       </c>
-      <c r="M184">
+      <c r="D184">
         <v>7</v>
       </c>
-      <c r="N184">
+      <c r="E184">
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>255</v>
       </c>
       <c r="B185" t="s">
         <v>335</v>
       </c>
-      <c r="L185">
+      <c r="C185">
         <v>1994</v>
       </c>
-      <c r="M185">
+      <c r="D185">
         <v>14</v>
       </c>
-      <c r="N185">
+      <c r="E185">
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>129</v>
       </c>
       <c r="B186" t="s">
         <v>336</v>
       </c>
-      <c r="L186">
+      <c r="C186">
         <v>2013</v>
       </c>
-      <c r="M186">
+      <c r="D186">
         <v>6</v>
       </c>
-      <c r="N186">
+      <c r="E186">
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
       <c r="B187" t="s">
         <v>337</v>
       </c>
-      <c r="L187">
+      <c r="C187">
         <v>2017</v>
       </c>
-      <c r="M187">
+      <c r="D187">
         <v>21</v>
       </c>
-      <c r="N187">
+      <c r="E187">
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>338</v>
       </c>
       <c r="B188" t="s">
         <v>339</v>
       </c>
-      <c r="L188">
+      <c r="C188">
         <v>2018</v>
       </c>
-      <c r="M188">
+      <c r="D188">
         <v>13</v>
       </c>
-      <c r="N188">
+      <c r="E188">
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>340</v>
       </c>
       <c r="B189" t="s">
         <v>341</v>
       </c>
-      <c r="L189">
+      <c r="C189">
         <v>1974</v>
       </c>
-      <c r="M189">
+      <c r="D189">
         <v>10</v>
       </c>
-      <c r="N189">
+      <c r="E189">
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>255</v>
       </c>
       <c r="B190" t="s">
         <v>342</v>
       </c>
-      <c r="L190">
+      <c r="C190">
         <v>1991</v>
       </c>
-      <c r="M190">
+      <c r="D190">
         <v>13</v>
       </c>
-      <c r="N190">
+      <c r="E190">
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>343</v>
       </c>
       <c r="B191" t="s">
         <v>344</v>
       </c>
-      <c r="L191">
+      <c r="C191">
         <v>2017</v>
       </c>
-      <c r="M191">
+      <c r="D191">
         <v>14</v>
       </c>
-      <c r="N191">
+      <c r="E191">
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>84</v>
       </c>
       <c r="B192" t="s">
         <v>345</v>
       </c>
-      <c r="L192">
+      <c r="C192">
         <v>2011</v>
       </c>
-      <c r="M192">
+      <c r="D192">
         <v>13</v>
       </c>
-      <c r="N192">
+      <c r="E192">
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>346</v>
       </c>
       <c r="B193" t="s">
         <v>347</v>
       </c>
-      <c r="L193">
+      <c r="C193">
         <v>1999</v>
       </c>
-      <c r="M193">
+      <c r="D193">
         <v>13</v>
       </c>
-      <c r="N193">
+      <c r="E193">
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
       <c r="B194" t="s">
         <v>348</v>
       </c>
-      <c r="L194">
+      <c r="C194">
         <v>2016</v>
       </c>
-      <c r="M194">
+      <c r="D194">
         <v>9</v>
       </c>
-      <c r="N194">
+      <c r="E194">
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>349</v>
       </c>
       <c r="B195" t="s">
         <v>350</v>
       </c>
-      <c r="L195">
+      <c r="C195">
         <v>2019</v>
       </c>
-      <c r="M195">
+      <c r="D195">
         <v>10</v>
       </c>
-      <c r="N195">
+      <c r="E195">
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>351</v>
       </c>
       <c r="B196" t="s">
         <v>352</v>
       </c>
-      <c r="L196">
+      <c r="C196">
         <v>1981</v>
       </c>
-      <c r="M196">
+      <c r="D196">
         <v>18</v>
       </c>
-      <c r="N196">
+      <c r="E196">
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>353</v>
       </c>
       <c r="B197" t="s">
         <v>354</v>
       </c>
-      <c r="L197">
+      <c r="C197">
         <v>1982</v>
       </c>
-      <c r="M197">
+      <c r="D197">
         <v>7</v>
       </c>
-      <c r="N197">
+      <c r="E197">
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>355</v>
       </c>
       <c r="B198" t="s">
         <v>356</v>
       </c>
-      <c r="L198">
+      <c r="C198">
         <v>2020</v>
       </c>
-      <c r="M198">
+      <c r="D198">
         <v>8</v>
       </c>
-      <c r="N198">
+      <c r="E198">
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>357</v>
       </c>
       <c r="B199" t="s">
         <v>358</v>
       </c>
-      <c r="L199">
+      <c r="C199">
         <v>2019</v>
       </c>
-      <c r="M199">
+      <c r="D199">
         <v>5</v>
       </c>
-      <c r="N199">
+      <c r="E199">
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>251</v>
       </c>
       <c r="B200" t="s">
         <v>359</v>
       </c>
-      <c r="L200">
+      <c r="C200">
         <v>1997</v>
       </c>
-      <c r="M200">
+      <c r="D200">
         <v>12</v>
       </c>
-      <c r="N200">
+      <c r="E200">
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>253</v>
       </c>
       <c r="B201" t="s">
         <v>360</v>
       </c>
-      <c r="L201">
+      <c r="C201">
         <v>1996</v>
       </c>
-      <c r="M201">
+      <c r="D201">
         <v>14</v>
       </c>
-      <c r="N201">
+      <c r="E201">
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>361</v>
       </c>
       <c r="B202" t="s">
         <v>361</v>
       </c>
-      <c r="L202">
+      <c r="C202">
         <v>2012</v>
       </c>
-      <c r="M202">
+      <c r="D202">
         <v>19</v>
       </c>
-      <c r="N202">
+      <c r="E202">
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>88</v>
       </c>
       <c r="B203" t="s">
         <v>362</v>
       </c>
-      <c r="L203">
+      <c r="C203">
         <v>1999</v>
       </c>
-      <c r="M203">
+      <c r="D203">
         <v>42</v>
       </c>
-      <c r="N203">
+      <c r="E203">
         <v>137</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>363</v>
       </c>
       <c r="B204" t="s">
         <v>364</v>
       </c>
-      <c r="L204">
+      <c r="C204">
         <v>2018</v>
       </c>
-      <c r="M204">
+      <c r="D204">
         <v>6</v>
       </c>
-      <c r="N204">
+      <c r="E204">
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>365</v>
       </c>
       <c r="B205" t="s">
         <v>366</v>
       </c>
-      <c r="L205">
+      <c r="C205">
         <v>2018</v>
       </c>
-      <c r="M205">
+      <c r="D205">
         <v>14</v>
       </c>
-      <c r="N205">
+      <c r="E205">
         <v>56</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>367</v>
       </c>
       <c r="B206" t="s">
         <v>368</v>
       </c>
-      <c r="L206">
+      <c r="C206">
         <v>2020</v>
       </c>
-      <c r="M206">
+      <c r="D206">
         <v>8</v>
       </c>
-      <c r="N206">
+      <c r="E206">
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>53</v>
       </c>
       <c r="B207" t="s">
         <v>369</v>
       </c>
-      <c r="L207">
+      <c r="C207">
         <v>2016</v>
       </c>
-      <c r="M207">
+      <c r="D207">
         <v>11</v>
       </c>
-      <c r="N207">
+      <c r="E207">
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>370</v>
       </c>
       <c r="B208" t="s">
         <v>371</v>
       </c>
-      <c r="L208">
+      <c r="C208">
         <v>2017</v>
       </c>
-      <c r="M208">
+      <c r="D208">
         <v>11</v>
       </c>
-      <c r="N208">
+      <c r="E208">
         <v>37</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>372</v>
       </c>
       <c r="B209" t="s">
         <v>373</v>
       </c>
-      <c r="L209">
+      <c r="C209">
         <v>1970</v>
       </c>
-      <c r="M209">
+      <c r="D209">
         <v>8</v>
       </c>
-      <c r="N209">
+      <c r="E209">
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>276</v>
       </c>
       <c r="B210" t="s">
         <v>374</v>
       </c>
-      <c r="L210">
+      <c r="C210">
         <v>2007</v>
       </c>
-      <c r="M210">
+      <c r="D210">
         <v>11</v>
       </c>
-      <c r="N210">
+      <c r="E210">
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>68</v>
       </c>
       <c r="B211" t="s">
         <v>375</v>
       </c>
-      <c r="L211">
+      <c r="C211">
         <v>2014</v>
       </c>
-      <c r="M211">
+      <c r="D211">
         <v>17</v>
       </c>
-      <c r="N211">
+      <c r="E211">
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>343</v>
       </c>
       <c r="B212" t="s">
         <v>376</v>
       </c>
-      <c r="L212">
+      <c r="C212">
         <v>2012</v>
       </c>
-      <c r="M212">
+      <c r="D212">
         <v>8</v>
       </c>
-      <c r="N212">
+      <c r="E212">
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>377</v>
       </c>
       <c r="B213" t="s">
         <v>378</v>
       </c>
-      <c r="L213">
+      <c r="C213">
         <v>2010</v>
       </c>
-      <c r="M213">
+      <c r="D213">
         <v>16</v>
       </c>
-      <c r="N213">
+      <c r="E213">
         <v>56</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>184</v>
       </c>
       <c r="B214" t="s">
         <v>379</v>
       </c>
-      <c r="L214">
+      <c r="C214">
         <v>2017</v>
       </c>
-      <c r="M214">
+      <c r="D214">
         <v>10</v>
       </c>
-      <c r="N214">
+      <c r="E214">
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>380</v>
       </c>
       <c r="B215" t="s">
         <v>381</v>
       </c>
-      <c r="L215">
+      <c r="C215">
         <v>2014</v>
       </c>
-      <c r="M215">
+      <c r="D215">
         <v>17</v>
       </c>
-      <c r="N215">
+      <c r="E215">
         <v>66</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>382</v>
       </c>
       <c r="B216" t="s">
         <v>383</v>
       </c>
-      <c r="L216">
+      <c r="C216">
         <v>2018</v>
       </c>
-      <c r="M216">
+      <c r="D216">
         <v>11</v>
       </c>
-      <c r="N216">
+      <c r="E216">
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>309</v>
       </c>
       <c r="B217" t="s">
         <v>384</v>
       </c>
-      <c r="L217">
+      <c r="C217">
         <v>2018</v>
       </c>
-      <c r="M217">
+      <c r="D217">
         <v>10</v>
       </c>
-      <c r="N217">
+      <c r="E217">
         <v>41</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>241</v>
       </c>
       <c r="B218" t="s">
         <v>385</v>
       </c>
-      <c r="L218">
+      <c r="C218">
         <v>2017</v>
       </c>
-      <c r="M218">
+      <c r="D218">
         <v>13</v>
       </c>
-      <c r="N218">
+      <c r="E218">
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>386</v>
       </c>
       <c r="B219" t="s">
         <v>386</v>
       </c>
-      <c r="L219">
+      <c r="C219">
         <v>2019</v>
       </c>
-      <c r="M219">
+      <c r="D219">
         <v>10</v>
       </c>
-      <c r="N219">
+      <c r="E219">
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>387</v>
       </c>
       <c r="B220" t="s">
         <v>388</v>
       </c>
-      <c r="L220">
+      <c r="C220">
         <v>2012</v>
       </c>
-      <c r="M220">
+      <c r="D220">
         <v>12</v>
       </c>
-      <c r="N220">
+      <c r="E220">
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>177</v>
       </c>
       <c r="B221" t="s">
         <v>177</v>
       </c>
-      <c r="L221">
+      <c r="C221">
         <v>1992</v>
       </c>
-      <c r="M221">
+      <c r="D221">
         <v>10</v>
       </c>
-      <c r="N221">
+      <c r="E221">
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>149</v>
       </c>
       <c r="B222" t="s">
         <v>389</v>
       </c>
-      <c r="L222">
+      <c r="C222">
         <v>2018</v>
       </c>
-      <c r="M222">
+      <c r="D222">
         <v>10</v>
       </c>
-      <c r="N222">
+      <c r="E222">
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>151</v>
       </c>
       <c r="B223" t="s">
         <v>390</v>
       </c>
-      <c r="L223">
+      <c r="C223">
         <v>2013</v>
       </c>
-      <c r="M223">
+      <c r="D223">
         <v>13</v>
       </c>
-      <c r="N223">
+      <c r="E223">
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>93</v>
       </c>
       <c r="B224" t="s">
         <v>391</v>
       </c>
-      <c r="L224">
+      <c r="C224">
         <v>2021</v>
       </c>
-      <c r="M224">
+      <c r="D224">
         <v>14</v>
       </c>
-      <c r="N224">
+      <c r="E224">
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>392</v>
       </c>
       <c r="B225" t="s">
         <v>393</v>
       </c>
-      <c r="L225">
+      <c r="C225">
         <v>1993</v>
       </c>
-      <c r="M225">
+      <c r="D225">
         <v>14</v>
       </c>
-      <c r="N225">
+      <c r="E225">
         <v>56</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>394</v>
       </c>
       <c r="B226" t="s">
         <v>395</v>
       </c>
-      <c r="L226">
+      <c r="C226">
         <v>1994</v>
       </c>
-      <c r="M226">
+      <c r="D226">
         <v>18</v>
       </c>
-      <c r="N226">
+      <c r="E226">
         <v>72</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>396</v>
       </c>
       <c r="B227" t="s">
         <v>397</v>
       </c>
-      <c r="L227">
+      <c r="C227">
         <v>2010</v>
       </c>
-      <c r="M227">
+      <c r="D227">
         <v>19</v>
       </c>
-      <c r="N227">
+      <c r="E227">
         <v>62</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>396</v>
       </c>
       <c r="B228" t="s">
         <v>398</v>
       </c>
-      <c r="L228">
+      <c r="C228">
         <v>2012</v>
       </c>
-      <c r="M228">
+      <c r="D228">
         <v>10</v>
       </c>
-      <c r="N228">
+      <c r="E228">
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>399</v>
       </c>
       <c r="B229" t="s">
         <v>400</v>
       </c>
-      <c r="L229">
+      <c r="C229">
         <v>2018</v>
       </c>
-      <c r="M229">
+      <c r="D229">
         <v>15</v>
       </c>
-      <c r="N229">
+      <c r="E229">
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>287</v>
       </c>
       <c r="B230" t="s">
         <v>401</v>
       </c>
-      <c r="L230">
+      <c r="C230">
         <v>2016</v>
       </c>
-      <c r="M230">
+      <c r="D230">
         <v>13</v>
       </c>
-      <c r="N230">
+      <c r="E230">
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>402</v>
       </c>
       <c r="B231" t="s">
         <v>403</v>
       </c>
-      <c r="L231">
+      <c r="C231">
         <v>2020</v>
       </c>
-      <c r="M231">
+      <c r="D231">
         <v>8</v>
       </c>
-      <c r="N231">
+      <c r="E231">
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>404</v>
       </c>
       <c r="B232" t="s">
         <v>405</v>
       </c>
-      <c r="L232">
+      <c r="C232">
         <v>1966</v>
       </c>
-      <c r="M232">
+      <c r="D232">
         <v>14</v>
       </c>
-      <c r="N232">
+      <c r="E232">
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>406</v>
       </c>
       <c r="B233" t="s">
         <v>407</v>
       </c>
-      <c r="L233">
+      <c r="C233">
         <v>1975</v>
       </c>
-      <c r="M233">
+      <c r="D233">
         <v>9</v>
       </c>
-      <c r="N233">
+      <c r="E233">
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>259</v>
       </c>
       <c r="B234" t="s">
         <v>408</v>
       </c>
-      <c r="L234">
+      <c r="C234">
         <v>2021</v>
       </c>
-      <c r="M234">
+      <c r="D234">
         <v>17</v>
       </c>
-      <c r="N234">
+      <c r="E234">
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>409</v>
       </c>
       <c r="B235" t="s">
         <v>410</v>
       </c>
-      <c r="L235">
+      <c r="C235">
         <v>1987</v>
       </c>
-      <c r="M235">
+      <c r="D235">
         <v>14</v>
       </c>
-      <c r="N235">
+      <c r="E235">
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>411</v>
       </c>
       <c r="B236" t="s">
         <v>412</v>
       </c>
-      <c r="L236">
+      <c r="C236">
         <v>2018</v>
       </c>
-      <c r="M236">
+      <c r="D236">
         <v>11</v>
       </c>
-      <c r="N236">
+      <c r="E236">
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>413</v>
       </c>
       <c r="B237" t="s">
         <v>414</v>
       </c>
-      <c r="L237">
+      <c r="C237">
         <v>2020</v>
       </c>
-      <c r="M237">
+      <c r="D237">
         <v>11</v>
       </c>
-      <c r="N237">
+      <c r="E237">
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>415</v>
       </c>
       <c r="B238" t="s">
         <v>416</v>
       </c>
-      <c r="L238">
+      <c r="C238">
         <v>1977</v>
       </c>
-      <c r="M238">
+      <c r="D238">
         <v>11</v>
       </c>
-      <c r="N238">
+      <c r="E238">
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>413</v>
       </c>
       <c r="B239" t="s">
         <v>417</v>
       </c>
-      <c r="L239">
+      <c r="C239">
         <v>2014</v>
       </c>
-      <c r="M239">
+      <c r="D239">
         <v>12</v>
       </c>
-      <c r="N239">
+      <c r="E239">
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>418</v>
       </c>
       <c r="B240" t="s">
         <v>419</v>
       </c>
-      <c r="L240">
+      <c r="C240">
         <v>2014</v>
       </c>
-      <c r="M240">
+      <c r="D240">
         <v>11</v>
       </c>
-      <c r="N240">
+      <c r="E240">
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>259</v>
       </c>
       <c r="B241" t="s">
         <v>420</v>
       </c>
-      <c r="L241">
+      <c r="C241">
         <v>2017</v>
       </c>
-      <c r="M241">
+      <c r="D241">
         <v>15</v>
       </c>
-      <c r="N241">
+      <c r="E241">
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>421</v>
       </c>
       <c r="B242" t="s">
         <v>422</v>
       </c>
-      <c r="L242">
+      <c r="C242">
         <v>2017</v>
       </c>
-      <c r="M242">
+      <c r="D242">
         <v>10</v>
       </c>
-      <c r="N242">
+      <c r="E242">
         <v>43</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>139</v>
       </c>
       <c r="B243" t="s">
         <v>423</v>
       </c>
-      <c r="L243">
+      <c r="C243">
         <v>2014</v>
       </c>
-      <c r="M243">
+      <c r="D243">
         <v>5</v>
       </c>
-      <c r="N243">
+      <c r="E243">
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>404</v>
       </c>
       <c r="B244" t="s">
         <v>424</v>
       </c>
-      <c r="L244">
+      <c r="C244">
         <v>1967</v>
       </c>
-      <c r="M244">
+      <c r="D244">
         <v>13</v>
       </c>
-      <c r="N244">
+      <c r="E244">
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>141</v>
       </c>
       <c r="B245" t="s">
         <v>425</v>
       </c>
-      <c r="L245">
+      <c r="C245">
         <v>2013</v>
       </c>
-      <c r="M245">
+      <c r="D245">
         <v>13</v>
       </c>
-      <c r="N245">
+      <c r="E245">
         <v>96</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>426</v>
       </c>
       <c r="B246" t="s">
         <v>427</v>
       </c>
-      <c r="L246">
+      <c r="C246">
         <v>2007</v>
       </c>
-      <c r="M246">
+      <c r="D246">
         <v>17</v>
       </c>
-      <c r="N246">
+      <c r="E246">
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>141</v>
       </c>
       <c r="B247" t="s">
         <v>428</v>
       </c>
-      <c r="L247">
+      <c r="C247">
         <v>2006</v>
       </c>
-      <c r="M247">
+      <c r="D247">
         <v>11</v>
       </c>
-      <c r="N247">
+      <c r="E247">
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>429</v>
       </c>
       <c r="B248" t="s">
         <v>430</v>
       </c>
-      <c r="L248">
+      <c r="C248">
         <v>2000</v>
       </c>
-      <c r="M248">
+      <c r="D248">
         <v>18</v>
       </c>
-      <c r="N248">
+      <c r="E248">
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>431</v>
       </c>
       <c r="B249" t="s">
         <v>432</v>
       </c>
-      <c r="L249">
+      <c r="C249">
         <v>2019</v>
       </c>
-      <c r="M249">
+      <c r="D249">
         <v>9</v>
       </c>
-      <c r="N249">
+      <c r="E249">
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>120</v>
       </c>
       <c r="B250" t="s">
         <v>433</v>
       </c>
-      <c r="L250">
+      <c r="C250">
         <v>2021</v>
       </c>
-      <c r="M250">
+      <c r="D250">
         <v>10</v>
       </c>
-      <c r="N250">
+      <c r="E250">
         <v>38</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>248</v>
       </c>
       <c r="B251" t="s">
         <v>434</v>
       </c>
-      <c r="L251">
+      <c r="C251">
         <v>2018</v>
       </c>
-      <c r="M251">
+      <c r="D251">
         <v>16</v>
       </c>
-      <c r="N251">
+      <c r="E251">
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>157</v>
       </c>
       <c r="B252" t="s">
         <v>435</v>
       </c>
-      <c r="L252">
+      <c r="C252">
         <v>2018</v>
       </c>
-      <c r="M252">
+      <c r="D252">
         <v>15</v>
       </c>
-      <c r="N252">
+      <c r="E252">
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>377</v>
       </c>
       <c r="B253" t="s">
         <v>436</v>
       </c>
-      <c r="L253">
+      <c r="C253">
         <v>2020</v>
       </c>
-      <c r="M253">
+      <c r="D253">
         <v>17</v>
       </c>
-      <c r="N253">
+      <c r="E253">
         <v>65</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>437</v>
       </c>
       <c r="B254" t="s">
         <v>438</v>
       </c>
-      <c r="L254">
+      <c r="C254">
         <v>1998</v>
       </c>
-      <c r="M254">
+      <c r="D254">
         <v>17</v>
       </c>
-      <c r="N254">
+      <c r="E254">
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>439</v>
       </c>
       <c r="B255" t="s">
         <v>440</v>
       </c>
-      <c r="L255">
+      <c r="C255">
         <v>2021</v>
       </c>
-      <c r="M255">
+      <c r="D255">
         <v>11</v>
       </c>
-      <c r="N255">
+      <c r="E255">
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>441</v>
       </c>
       <c r="B256" t="s">
         <v>442</v>
       </c>
-      <c r="L256">
+      <c r="C256">
         <v>2020</v>
       </c>
-      <c r="M256">
+      <c r="D256">
         <v>12</v>
       </c>
-      <c r="N256">
+      <c r="E256">
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>443</v>
       </c>
       <c r="B257" t="s">
         <v>444</v>
       </c>
-      <c r="L257">
+      <c r="C257">
         <v>1993</v>
       </c>
-      <c r="M257">
+      <c r="D257">
         <v>12</v>
       </c>
-      <c r="N257">
+      <c r="E257">
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>445</v>
       </c>
       <c r="B258" t="s">
         <v>446</v>
       </c>
-      <c r="L258">
+      <c r="C258">
         <v>2021</v>
       </c>
-      <c r="M258">
+      <c r="D258">
         <v>14</v>
       </c>
-      <c r="N258">
+      <c r="E258">
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>426</v>
       </c>
       <c r="B259" t="s">
         <v>447</v>
       </c>
-      <c r="L259">
+      <c r="C259">
         <v>2005</v>
       </c>
-      <c r="M259">
+      <c r="D259">
         <v>16</v>
       </c>
-      <c r="N259">
+      <c r="E259">
         <v>66</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>448</v>
       </c>
       <c r="B260" t="s">
         <v>449</v>
       </c>
-      <c r="L260">
+      <c r="C260">
         <v>1988</v>
       </c>
-      <c r="M260">
+      <c r="D260">
         <v>13</v>
       </c>
-      <c r="N260">
+      <c r="E260">
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>450</v>
       </c>
       <c r="B261" t="s">
         <v>451</v>
       </c>
-      <c r="L261">
+      <c r="C261">
         <v>2019</v>
       </c>
-      <c r="M261">
+      <c r="D261">
         <v>14</v>
       </c>
-      <c r="N261">
+      <c r="E261">
         <v>54</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>452</v>
       </c>
       <c r="B262" t="s">
         <v>453</v>
       </c>
-      <c r="L262">
+      <c r="C262">
         <v>2021</v>
       </c>
-      <c r="M262">
+      <c r="D262">
         <v>8</v>
       </c>
-      <c r="N262">
+      <c r="E262">
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>454</v>
       </c>
       <c r="B263" t="s">
         <v>455</v>
       </c>
-      <c r="L263">
+      <c r="C263">
         <v>2017</v>
       </c>
-      <c r="M263">
+      <c r="D263">
         <v>6</v>
       </c>
-      <c r="N263">
+      <c r="E263">
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
       <c r="B264" t="s">
         <v>456</v>
       </c>
-      <c r="L264">
+      <c r="C264">
         <v>2013</v>
       </c>
-      <c r="M264">
+      <c r="D264">
         <v>7</v>
       </c>
-      <c r="N264">
+      <c r="E264">
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>457</v>
       </c>
       <c r="B265" t="s">
         <v>458</v>
       </c>
-      <c r="L265">
+      <c r="C265">
         <v>2015</v>
       </c>
-      <c r="M265">
+      <c r="D265">
         <v>8</v>
       </c>
-      <c r="N265">
+      <c r="E265">
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>459</v>
       </c>
       <c r="B266" t="s">
         <v>460</v>
       </c>
-      <c r="L266">
+      <c r="C266">
         <v>1994</v>
       </c>
-      <c r="M266">
+      <c r="D266">
         <v>15</v>
       </c>
-      <c r="N266">
+      <c r="E266">
         <v>70</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>112</v>
       </c>
       <c r="B267" t="s">
         <v>461</v>
       </c>
-      <c r="L267">
+      <c r="C267">
         <v>2018</v>
       </c>
-      <c r="M267">
+      <c r="D267">
         <v>13</v>
       </c>
-      <c r="N267">
+      <c r="E267">
         <v>58</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>462</v>
       </c>
       <c r="B268" t="s">
         <v>463</v>
       </c>
-      <c r="L268">
+      <c r="C268">
         <v>2011</v>
       </c>
-      <c r="M268">
+      <c r="D268">
         <v>27</v>
       </c>
-      <c r="N268">
+      <c r="E268">
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>464</v>
       </c>
       <c r="B269" t="s">
         <v>465</v>
       </c>
-      <c r="L269">
+      <c r="C269">
         <v>2014</v>
       </c>
-      <c r="M269">
+      <c r="D269">
         <v>12</v>
       </c>
-      <c r="N269">
+      <c r="E269">
         <v>64</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>244</v>
       </c>
       <c r="B270" t="s">
         <v>466</v>
       </c>
-      <c r="L270">
+      <c r="C270">
         <v>2018</v>
       </c>
-      <c r="M270">
+      <c r="D270">
         <v>13</v>
       </c>
-      <c r="N270">
+      <c r="E270">
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
       <c r="B271" t="s">
         <v>467</v>
       </c>
-      <c r="L271">
+      <c r="C271">
         <v>2014</v>
       </c>
-      <c r="M271">
+      <c r="D271">
         <v>14</v>
       </c>
-      <c r="N271">
+      <c r="E271">
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>468</v>
       </c>
       <c r="B272" t="s">
         <v>469</v>
       </c>
-      <c r="L272">
+      <c r="C272">
         <v>2016</v>
       </c>
-      <c r="M272">
+      <c r="D272">
         <v>12</v>
       </c>
-      <c r="N272">
+      <c r="E272">
         <v>70</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>470</v>
       </c>
       <c r="B273" t="s">
         <v>471</v>
       </c>
-      <c r="L273">
+      <c r="C273">
         <v>2012</v>
       </c>
-      <c r="M273">
+      <c r="D273">
         <v>13</v>
       </c>
-      <c r="N273">
+      <c r="E273">
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>472</v>
       </c>
       <c r="B274" t="s">
         <v>473</v>
       </c>
-      <c r="L274">
+      <c r="C274">
         <v>2013</v>
       </c>
-      <c r="M274">
+      <c r="D274">
         <v>13</v>
       </c>
-      <c r="N274">
+      <c r="E274">
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>474</v>
       </c>
       <c r="B275" t="s">
         <v>475</v>
       </c>
-      <c r="L275">
+      <c r="C275">
         <v>2019</v>
       </c>
-      <c r="M275">
+      <c r="D275">
         <v>6</v>
       </c>
-      <c r="N275">
+      <c r="E275">
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>476</v>
       </c>
       <c r="B276" t="s">
         <v>477</v>
       </c>
-      <c r="L276">
+      <c r="C276">
         <v>2016</v>
       </c>
-      <c r="M276">
+      <c r="D276">
         <v>10</v>
       </c>
-      <c r="N276">
+      <c r="E276">
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>478</v>
       </c>
       <c r="B277" t="s">
         <v>479</v>
       </c>
-      <c r="L277">
+      <c r="C277">
         <v>2017</v>
       </c>
-      <c r="M277">
+      <c r="D277">
         <v>12</v>
       </c>
-      <c r="N277">
+      <c r="E277">
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>480</v>
       </c>
       <c r="B278" t="s">
         <v>481</v>
       </c>
-      <c r="L278">
+      <c r="C278">
         <v>2005</v>
       </c>
-      <c r="M278">
+      <c r="D278">
         <v>19</v>
       </c>
-      <c r="N278">
+      <c r="E278">
         <v>76</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>23</v>
       </c>
       <c r="B279" t="s">
         <v>482</v>
       </c>
-      <c r="L279">
+      <c r="C279">
         <v>2001</v>
       </c>
-      <c r="M279">
+      <c r="D279">
         <v>15</v>
       </c>
-      <c r="N279">
+      <c r="E279">
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>483</v>
       </c>
       <c r="B280" t="s">
         <v>484</v>
       </c>
-      <c r="L280">
+      <c r="C280">
         <v>1997</v>
       </c>
-      <c r="M280">
+      <c r="D280">
         <v>12</v>
       </c>
-      <c r="N280">
+      <c r="E280">
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>485</v>
       </c>
       <c r="B281" t="s">
         <v>486</v>
       </c>
-      <c r="L281">
+      <c r="C281">
         <v>2021</v>
       </c>
-      <c r="M281">
+      <c r="D281">
         <v>9</v>
       </c>
-      <c r="N281">
+      <c r="E281">
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>11</v>
       </c>
       <c r="B282" t="s">
         <v>487</v>
       </c>
-      <c r="L282">
+      <c r="C282">
         <v>1992</v>
       </c>
-      <c r="M282">
+      <c r="D282">
         <v>16</v>
       </c>
-      <c r="N282">
+      <c r="E282">
         <v>62</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>488</v>
       </c>
       <c r="B283" t="s">
         <v>489</v>
       </c>
-      <c r="L283">
+      <c r="C283">
         <v>1973</v>
       </c>
-      <c r="M283">
+      <c r="D283">
         <v>10</v>
       </c>
-      <c r="N283">
+      <c r="E283">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>149</v>
       </c>
       <c r="B284" t="s">
         <v>490</v>
       </c>
-      <c r="L284">
+      <c r="C284">
         <v>2013</v>
       </c>
-      <c r="M284">
+      <c r="D284">
         <v>12</v>
       </c>
-      <c r="N284">
+      <c r="E284">
         <v>67</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>491</v>
       </c>
       <c r="B285" t="s">
         <v>492</v>
       </c>
-      <c r="L285">
+      <c r="C285">
         <v>1968</v>
       </c>
-      <c r="M285">
+      <c r="D285">
         <v>11</v>
       </c>
-      <c r="N285">
+      <c r="E285">
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>133</v>
       </c>
       <c r="B286" t="s">
         <v>493</v>
       </c>
-      <c r="L286">
+      <c r="C286">
         <v>2002</v>
       </c>
-      <c r="M286">
+      <c r="D286">
         <v>20</v>
       </c>
-      <c r="N286">
+      <c r="E286">
         <v>77</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>494</v>
       </c>
       <c r="B287" t="s">
         <v>495</v>
       </c>
-      <c r="L287">
+      <c r="C287">
         <v>2015</v>
       </c>
-      <c r="M287">
+      <c r="D287">
         <v>17</v>
       </c>
-      <c r="N287">
+      <c r="E287">
         <v>173</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>496</v>
       </c>
       <c r="B288" t="s">
         <v>497</v>
       </c>
-      <c r="L288">
+      <c r="C288">
         <v>2000</v>
       </c>
-      <c r="M288">
+      <c r="D288">
         <v>32</v>
       </c>
-      <c r="N288">
+      <c r="E288">
         <v>135</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>498</v>
       </c>
       <c r="B289" t="s">
         <v>499</v>
       </c>
-      <c r="L289">
+      <c r="C289">
         <v>2016</v>
       </c>
-      <c r="M289">
+      <c r="D289">
         <v>8</v>
       </c>
-      <c r="N289">
+      <c r="E289">
         <v>118</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>205</v>
       </c>
       <c r="B290" t="s">
         <v>500</v>
       </c>
-      <c r="L290">
+      <c r="C290">
         <v>2021</v>
       </c>
-      <c r="M290">
+      <c r="D290">
         <v>12</v>
       </c>
-      <c r="N290">
+      <c r="E290">
         <v>50</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>476</v>
       </c>
       <c r="B291" t="s">
         <v>501</v>
       </c>
-      <c r="L291">
+      <c r="C291">
         <v>2020</v>
       </c>
-      <c r="M291">
+      <c r="D291">
         <v>10</v>
       </c>
-      <c r="N291">
+      <c r="E291">
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>205</v>
       </c>
       <c r="B292" t="s">
         <v>502</v>
       </c>
-      <c r="L292">
+      <c r="C292">
         <v>1997</v>
       </c>
-      <c r="M292">
+      <c r="D292">
         <v>15</v>
       </c>
-      <c r="N292">
+      <c r="E292">
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>503</v>
       </c>
       <c r="B293" t="s">
         <v>504</v>
       </c>
-      <c r="L293">
+      <c r="C293">
         <v>1970</v>
       </c>
-      <c r="M293">
+      <c r="D293">
         <v>9</v>
       </c>
-      <c r="N293">
+      <c r="E293">
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>505</v>
       </c>
       <c r="B294" t="s">
         <v>506</v>
       </c>
-      <c r="L294">
+      <c r="C294">
         <v>2015</v>
       </c>
-      <c r="M294">
+      <c r="D294">
         <v>21</v>
       </c>
-      <c r="N294">
+      <c r="E294">
         <v>65</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>133</v>
       </c>
       <c r="B295" t="s">
         <v>507</v>
       </c>
-      <c r="L295">
+      <c r="C295">
         <v>2000</v>
       </c>
-      <c r="M295">
+      <c r="D295">
         <v>18</v>
       </c>
-      <c r="N295">
+      <c r="E295">
         <v>72</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>508</v>
       </c>
       <c r="B296" t="s">
         <v>509</v>
       </c>
-      <c r="L296">
+      <c r="C296">
         <v>1998</v>
       </c>
-      <c r="M296">
+      <c r="D296">
         <v>16</v>
       </c>
-      <c r="N296">
+      <c r="E296">
         <v>74</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>510</v>
       </c>
       <c r="B297" t="s">
         <v>511</v>
       </c>
-      <c r="L297">
+      <c r="C297">
         <v>1991</v>
       </c>
-      <c r="M297">
+      <c r="D297">
         <v>11</v>
       </c>
-      <c r="N297">
+      <c r="E297">
         <v>65</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>512</v>
       </c>
       <c r="B298" t="s">
         <v>513</v>
       </c>
-      <c r="L298">
+      <c r="C298">
         <v>2012</v>
       </c>
-      <c r="M298">
+      <c r="D298">
         <v>13</v>
       </c>
-      <c r="N298">
+      <c r="E298">
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>514</v>
       </c>
       <c r="B299" t="s">
         <v>515</v>
       </c>
-      <c r="L299">
+      <c r="C299">
         <v>2010</v>
       </c>
-      <c r="M299">
+      <c r="D299">
         <v>10</v>
       </c>
-      <c r="N299">
+      <c r="E299">
         <v>65</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>514</v>
       </c>
       <c r="B300" t="s">
         <v>516</v>
       </c>
-      <c r="L300">
+      <c r="C300">
         <v>2015</v>
       </c>
-      <c r="M300">
+      <c r="D300">
         <v>29</v>
       </c>
-      <c r="N300">
+      <c r="E300">
         <v>92</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
       <c r="B301" t="s">
         <v>517</v>
       </c>
-      <c r="L301">
+      <c r="C301">
         <v>2021</v>
       </c>
-      <c r="M301">
+      <c r="D301">
         <v>12</v>
       </c>
-      <c r="N301">
+      <c r="E301">
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>512</v>
       </c>
       <c r="B302" t="s">
         <v>518</v>
       </c>
-      <c r="L302">
+      <c r="C302">
         <v>2015</v>
       </c>
-      <c r="M302">
+      <c r="D302">
         <v>18</v>
       </c>
-      <c r="N302">
+      <c r="E302">
         <v>80</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>169</v>
       </c>
       <c r="B303" t="s">
         <v>519</v>
       </c>
-      <c r="L303">
+      <c r="C303">
         <v>2002</v>
       </c>
-      <c r="M303">
+      <c r="D303">
         <v>14</v>
       </c>
-      <c r="N303">
+      <c r="E303">
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>520</v>
       </c>
       <c r="B304" t="s">
         <v>521</v>
       </c>
-      <c r="L304">
+      <c r="C304">
         <v>2017</v>
       </c>
-      <c r="M304">
+      <c r="D304">
         <v>6</v>
       </c>
-      <c r="N304">
+      <c r="E304">
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>522</v>
       </c>
       <c r="B305" t="s">
         <v>523</v>
       </c>
-      <c r="L305">
+      <c r="C305">
         <v>1996</v>
       </c>
-      <c r="M305">
+      <c r="D305">
         <v>17</v>
       </c>
-      <c r="N305">
+      <c r="E305">
         <v>76</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>120</v>
       </c>
       <c r="B306" t="s">
         <v>524</v>
       </c>
-      <c r="L306">
+      <c r="C306">
         <v>2017</v>
       </c>
-      <c r="M306">
+      <c r="D306">
         <v>12</v>
       </c>
-      <c r="N306">
+      <c r="E306">
         <v>43</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>133</v>
       </c>
       <c r="B307" t="s">
         <v>525</v>
       </c>
-      <c r="L307">
+      <c r="C307">
         <v>1999</v>
       </c>
-      <c r="M307">
+      <c r="D307">
         <v>20</v>
       </c>
-      <c r="N307">
+      <c r="E307">
         <v>59</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>131</v>
       </c>
       <c r="B308" t="s">
         <v>526</v>
       </c>
-      <c r="L308">
+      <c r="C308">
         <v>2020</v>
       </c>
-      <c r="M308">
+      <c r="D308">
         <v>12</v>
       </c>
-      <c r="N308">
+      <c r="E308">
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>110</v>
       </c>
       <c r="B309" t="s">
         <v>527</v>
       </c>
-      <c r="L309">
+      <c r="C309">
         <v>2016</v>
       </c>
-      <c r="M309">
+      <c r="D309">
         <v>17</v>
       </c>
-      <c r="N309">
+      <c r="E309">
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>528</v>
       </c>
       <c r="B310" t="s">
         <v>529</v>
       </c>
-      <c r="L310">
+      <c r="C310">
         <v>2021</v>
       </c>
-      <c r="M310">
+      <c r="D310">
         <v>12</v>
       </c>
-      <c r="N310">
+      <c r="E310">
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>530</v>
       </c>
       <c r="B311" t="s">
         <v>531</v>
       </c>
-      <c r="L311">
+      <c r="C311">
         <v>2015</v>
       </c>
-      <c r="M311">
+      <c r="D311">
         <v>11</v>
       </c>
-      <c r="N311">
+      <c r="E311">
         <v>79</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>532</v>
       </c>
       <c r="B312" t="s">
         <v>533</v>
       </c>
-      <c r="L312">
+      <c r="C312">
         <v>2000</v>
       </c>
-      <c r="M312">
+      <c r="D312">
         <v>24</v>
       </c>
-      <c r="N312">
+      <c r="E312">
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>534</v>
       </c>
       <c r="B313" t="s">
         <v>535</v>
       </c>
-      <c r="L313">
+      <c r="C313">
         <v>1999</v>
       </c>
-      <c r="M313">
+      <c r="D313">
         <v>18</v>
       </c>
-      <c r="N313">
+      <c r="E313">
         <v>68</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>536</v>
       </c>
       <c r="B314" t="s">
         <v>537</v>
       </c>
-      <c r="L314">
+      <c r="C314">
         <v>2010</v>
       </c>
-      <c r="M314">
+      <c r="D314">
         <v>9</v>
       </c>
-      <c r="N314">
+      <c r="E314">
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>93</v>
       </c>
       <c r="B315" t="s">
         <v>538</v>
       </c>
-      <c r="L315">
+      <c r="C315">
         <v>2021</v>
       </c>
-      <c r="M315">
+      <c r="D315">
         <v>8</v>
       </c>
-      <c r="N315">
+      <c r="E315">
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>476</v>
       </c>
       <c r="B316" t="s">
         <v>539</v>
       </c>
-      <c r="L316">
+      <c r="C316">
         <v>2015</v>
       </c>
-      <c r="M316">
+      <c r="D316">
         <v>10</v>
       </c>
-      <c r="N316">
+      <c r="E316">
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>540</v>
       </c>
       <c r="B317" t="s">
         <v>541</v>
       </c>
-      <c r="L317">
+      <c r="C317">
         <v>1959</v>
       </c>
-      <c r="M317">
+      <c r="D317">
         <v>15</v>
       </c>
-      <c r="N317">
+      <c r="E317">
         <v>92</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>498</v>
       </c>
       <c r="B318" t="s">
         <v>542</v>
       </c>
-      <c r="L318">
+      <c r="C318">
         <v>2014</v>
       </c>
-      <c r="M318">
+      <c r="D318">
         <v>10</v>
       </c>
-      <c r="N318">
+      <c r="E318">
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>543</v>
       </c>
       <c r="B319" t="s">
         <v>544</v>
       </c>
-      <c r="L319">
+      <c r="C319">
         <v>2009</v>
       </c>
-      <c r="M319">
+      <c r="D319">
         <v>11</v>
       </c>
-      <c r="N319">
+      <c r="E319">
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>387</v>
       </c>
       <c r="B320" t="s">
         <v>545</v>
       </c>
-      <c r="L320">
+      <c r="C320">
         <v>2014</v>
       </c>
-      <c r="M320">
+      <c r="D320">
         <v>11</v>
       </c>
-      <c r="N320">
+      <c r="E320">
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>137</v>
       </c>
       <c r="B321" t="s">
         <v>546</v>
       </c>
-      <c r="L321">
+      <c r="C321">
         <v>2015</v>
       </c>
-      <c r="M321">
+      <c r="D321">
         <v>16</v>
       </c>
-      <c r="N321">
+      <c r="E321">
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>547</v>
       </c>
       <c r="B322" t="s">
         <v>548</v>
       </c>
-      <c r="L322">
+      <c r="C322">
         <v>2011</v>
       </c>
-      <c r="M322">
+      <c r="D322">
         <v>10</v>
       </c>
-      <c r="N322">
+      <c r="E322">
         <v>38</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>229</v>
       </c>
       <c r="B323" t="s">
         <v>549</v>
       </c>
-      <c r="L323">
+      <c r="C323">
         <v>2001</v>
       </c>
-      <c r="M323">
+      <c r="D323">
         <v>15</v>
       </c>
-      <c r="N323">
+      <c r="E323">
         <v>43</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>550</v>
       </c>
       <c r="B324" t="s">
         <v>551</v>
       </c>
-      <c r="L324">
+      <c r="C324">
         <v>2020</v>
       </c>
-      <c r="M324">
+      <c r="D324">
         <v>10</v>
       </c>
-      <c r="N324">
+      <c r="E324">
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>474</v>
       </c>
       <c r="B325" t="s">
         <v>552</v>
       </c>
-      <c r="L325">
+      <c r="C325">
         <v>2019</v>
       </c>
-      <c r="M325">
+      <c r="D325">
         <v>9</v>
       </c>
-      <c r="N325">
+      <c r="E325">
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>468</v>
       </c>
       <c r="B326" t="s">
         <v>553</v>
       </c>
-      <c r="L326">
+      <c r="C326">
         <v>2018</v>
       </c>
-      <c r="M326">
+      <c r="D326">
         <v>10</v>
       </c>
-      <c r="N326">
+      <c r="E326">
         <v>71</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>554</v>
       </c>
       <c r="B327" t="s">
         <v>555</v>
       </c>
-      <c r="L327">
+      <c r="C327">
         <v>2021</v>
       </c>
-      <c r="M327">
+      <c r="D327">
         <v>14</v>
       </c>
-      <c r="N327">
+      <c r="E327">
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>57</v>
       </c>
       <c r="B328" t="s">
         <v>556</v>
       </c>
-      <c r="L328">
+      <c r="C328">
         <v>2019</v>
       </c>
-      <c r="M328">
+      <c r="D328">
         <v>11</v>
       </c>
-      <c r="N328">
+      <c r="E328">
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>31</v>
       </c>
       <c r="B329" t="s">
         <v>557</v>
       </c>
-      <c r="L329">
+      <c r="C329">
         <v>2020</v>
       </c>
-      <c r="M329">
+      <c r="D329">
         <v>12</v>
       </c>
-      <c r="N329">
+      <c r="E329">
         <v>42</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>338</v>
       </c>
       <c r="B330" t="s">
         <v>558</v>
       </c>
-      <c r="L330">
+      <c r="C330">
         <v>2020</v>
       </c>
-      <c r="M330">
+      <c r="D330">
         <v>14</v>
       </c>
-      <c r="N330">
+      <c r="E330">
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>559</v>
       </c>
       <c r="B331" t="s">
         <v>560</v>
       </c>
-      <c r="L331">
+      <c r="C331">
         <v>2018</v>
       </c>
-      <c r="M331">
+      <c r="D331">
         <v>6</v>
       </c>
-      <c r="N331">
+      <c r="E331">
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>149</v>
       </c>
       <c r="B332" t="s">
         <v>561</v>
       </c>
-      <c r="L332">
+      <c r="C332">
         <v>1996</v>
       </c>
-      <c r="M332">
+      <c r="D332">
         <v>13</v>
       </c>
-      <c r="N332">
+      <c r="E332">
         <v>71</v>
       </c>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>137</v>
       </c>
       <c r="B333" t="s">
         <v>562</v>
       </c>
-      <c r="L333">
+      <c r="C333">
         <v>2016</v>
       </c>
-      <c r="M333">
+      <c r="D333">
         <v>8</v>
       </c>
-      <c r="N333">
+      <c r="E333">
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>563</v>
       </c>
       <c r="B334" t="s">
         <v>564</v>
       </c>
-      <c r="L334">
+      <c r="C334">
         <v>2007</v>
       </c>
-      <c r="M334">
+      <c r="D334">
         <v>13</v>
       </c>
-      <c r="N334">
+      <c r="E334">
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>565</v>
       </c>
       <c r="B335" t="s">
         <v>566</v>
       </c>
-      <c r="L335">
+      <c r="C335">
         <v>2015</v>
       </c>
-      <c r="M335">
+      <c r="D335">
         <v>11</v>
       </c>
-      <c r="N335">
+      <c r="E335">
         <v>38</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>567</v>
       </c>
       <c r="B336" t="s">
         <v>568</v>
       </c>
-      <c r="L336">
+      <c r="C336">
         <v>2013</v>
       </c>
-      <c r="M336">
+      <c r="D336">
         <v>16</v>
       </c>
-      <c r="N336">
+      <c r="E336">
         <v>70</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>569</v>
       </c>
       <c r="B337" t="s">
         <v>570</v>
       </c>
-      <c r="L337">
+      <c r="C337">
         <v>2015</v>
       </c>
-      <c r="M337">
+      <c r="D337">
         <v>14</v>
       </c>
-      <c r="N337">
+      <c r="E337">
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>365</v>
       </c>
       <c r="B338" t="s">
         <v>571</v>
       </c>
-      <c r="L338">
+      <c r="C338">
         <v>2019</v>
       </c>
-      <c r="M338">
+      <c r="D338">
         <v>11</v>
       </c>
-      <c r="N338">
+      <c r="E338">
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>53</v>
       </c>
       <c r="B339" t="s">
         <v>572</v>
       </c>
-      <c r="L339">
+      <c r="C339">
         <v>2016</v>
       </c>
-      <c r="M339">
+      <c r="D339">
         <v>6</v>
       </c>
-      <c r="N339">
+      <c r="E339">
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>46</v>
       </c>
       <c r="B340" t="s">
         <v>573</v>
       </c>
-      <c r="L340">
+      <c r="C340">
         <v>2018</v>
       </c>
-      <c r="M340">
+      <c r="D340">
         <v>19</v>
       </c>
-      <c r="N340">
+      <c r="E340">
         <v>47</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>559</v>
       </c>
       <c r="B341" t="s">
         <v>574</v>
       </c>
-      <c r="L341">
+      <c r="C341">
         <v>2018</v>
       </c>
-      <c r="M341">
+      <c r="D341">
         <v>13</v>
       </c>
-      <c r="N341">
+      <c r="E341">
         <v>65</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>575</v>
       </c>
       <c r="B342" t="s">
         <v>576</v>
       </c>
-      <c r="L342">
+      <c r="C342">
         <v>2009</v>
       </c>
-      <c r="M342">
+      <c r="D342">
         <v>13</v>
       </c>
-      <c r="N342">
+      <c r="E342">
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>577</v>
       </c>
       <c r="B343" t="s">
         <v>578</v>
       </c>
-      <c r="L343">
+      <c r="C343">
         <v>2012</v>
       </c>
-      <c r="M343">
+      <c r="D343">
         <v>13</v>
       </c>
-      <c r="N343">
+      <c r="E343">
         <v>47</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>579</v>
       </c>
       <c r="B344" t="s">
         <v>580</v>
       </c>
-      <c r="L344">
+      <c r="C344">
         <v>2020</v>
       </c>
-      <c r="M344">
+      <c r="D344">
         <v>16</v>
       </c>
-      <c r="N344">
+      <c r="E344">
         <v>52</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>216</v>
       </c>
       <c r="B345" t="s">
         <v>581</v>
       </c>
-      <c r="L345">
+      <c r="C345">
         <v>2006</v>
       </c>
-      <c r="M345">
+      <c r="D345">
         <v>13</v>
       </c>
-      <c r="N345">
+      <c r="E345">
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>582</v>
       </c>
       <c r="B346" t="s">
         <v>583</v>
       </c>
-      <c r="L346">
+      <c r="C346">
         <v>2019</v>
       </c>
-      <c r="M346">
+      <c r="D346">
         <v>16</v>
       </c>
-      <c r="N346">
+      <c r="E346">
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>584</v>
       </c>
       <c r="B347" t="s">
         <v>585</v>
       </c>
-      <c r="L347">
+      <c r="C347">
         <v>2007</v>
       </c>
-      <c r="M347">
+      <c r="D347">
         <v>17</v>
       </c>
-      <c r="N347">
+      <c r="E347">
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>59</v>
       </c>
       <c r="B348" t="s">
         <v>586</v>
       </c>
-      <c r="L348">
+      <c r="C348">
         <v>2003</v>
       </c>
-      <c r="M348">
+      <c r="D348">
         <v>23</v>
       </c>
-      <c r="N348">
+      <c r="E348">
         <v>132</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>42</v>
       </c>
       <c r="B349" t="s">
         <v>587</v>
       </c>
-      <c r="L349">
+      <c r="C349">
         <v>2019</v>
       </c>
-      <c r="M349">
+      <c r="D349">
         <v>14</v>
       </c>
-      <c r="N349">
+      <c r="E349">
         <v>63</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>450</v>
       </c>
       <c r="B350" t="s">
         <v>588</v>
       </c>
-      <c r="L350">
+      <c r="C350">
         <v>2021</v>
       </c>
-      <c r="M350">
+      <c r="D350">
         <v>13</v>
       </c>
-      <c r="N350">
+      <c r="E350">
         <v>40</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>429</v>
       </c>
       <c r="B351" t="s">
         <v>589</v>
       </c>
-      <c r="L351">
+      <c r="C351">
         <v>2020</v>
       </c>
-      <c r="M351">
+      <c r="D351">
         <v>25</v>
       </c>
-      <c r="N351">
+      <c r="E351">
         <v>71</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>590</v>
       </c>
       <c r="B352" t="s">
         <v>591</v>
       </c>
-      <c r="L352">
+      <c r="C352">
         <v>1995</v>
       </c>
-      <c r="M352">
+      <c r="D352">
         <v>12</v>
       </c>
-      <c r="N352">
+      <c r="E352">
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>592</v>
       </c>
       <c r="B353" t="s">
         <v>593</v>
       </c>
-      <c r="L353">
+      <c r="C353">
         <v>2020</v>
       </c>
-      <c r="M353">
+      <c r="D353">
         <v>20</v>
       </c>
-      <c r="N353">
+      <c r="E353">
         <v>86</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>498</v>
       </c>
       <c r="B354" t="s">
         <v>594</v>
       </c>
-      <c r="L354">
+      <c r="C354">
         <v>1991</v>
       </c>
-      <c r="M354">
+      <c r="D354">
         <v>13</v>
       </c>
-      <c r="N354">
+      <c r="E354">
         <v>72</v>
       </c>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>595</v>
       </c>
       <c r="B355" t="s">
         <v>596</v>
       </c>
-      <c r="L355">
+      <c r="C355">
         <v>2011</v>
       </c>
-      <c r="M355">
+      <c r="D355">
         <v>9</v>
       </c>
-      <c r="N355">
+      <c r="E355">
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>597</v>
       </c>
       <c r="B356" t="s">
         <v>598</v>
       </c>
-      <c r="L356">
+      <c r="C356">
         <v>2010</v>
       </c>
-      <c r="M356">
+      <c r="D356">
         <v>15</v>
       </c>
-      <c r="N356">
+      <c r="E356">
         <v>53</v>
       </c>
     </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>225</v>
       </c>
       <c r="B357" t="s">
         <v>599</v>
       </c>
-      <c r="L357">
+      <c r="C357">
         <v>2018</v>
       </c>
-      <c r="M357">
+      <c r="D357">
         <v>13</v>
       </c>
-      <c r="N357">
+      <c r="E357">
         <v>38</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>600</v>
       </c>
       <c r="B358" t="s">
         <v>601</v>
       </c>
-      <c r="L358">
+      <c r="C358">
         <v>2015</v>
       </c>
-      <c r="M358">
+      <c r="D358">
         <v>11</v>
       </c>
-      <c r="N358">
+      <c r="E358">
         <v>45</v>
       </c>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>246</v>
       </c>
       <c r="B359" t="s">
         <v>602</v>
       </c>
-      <c r="L359">
+      <c r="C359">
         <v>2017</v>
       </c>
-      <c r="M359">
+      <c r="D359">
         <v>10</v>
       </c>
-      <c r="N359">
+      <c r="E359">
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>603</v>
       </c>
       <c r="B360" t="s">
         <v>604</v>
       </c>
-      <c r="L360">
+      <c r="C360">
         <v>2002</v>
       </c>
-      <c r="M360">
+      <c r="D360">
         <v>11</v>
       </c>
-      <c r="N360">
+      <c r="E360">
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>512</v>
       </c>
       <c r="B361" t="s">
         <v>605</v>
       </c>
-      <c r="L361">
+      <c r="C361">
         <v>2018</v>
       </c>
-      <c r="M361">
+      <c r="D361">
         <v>13</v>
       </c>
-      <c r="N361">
+      <c r="E361">
         <v>37</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>606</v>
       </c>
       <c r="B362" t="s">
         <v>607</v>
       </c>
-      <c r="L362">
+      <c r="C362">
         <v>2013</v>
       </c>
-      <c r="M362">
+      <c r="D362">
         <v>11</v>
       </c>
-      <c r="N362">
+      <c r="E362">
         <v>43</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>76</v>
       </c>
       <c r="B363" t="s">
         <v>608</v>
       </c>
-      <c r="L363">
+      <c r="C363">
         <v>2018</v>
       </c>
-      <c r="M363">
+      <c r="D363">
         <v>9</v>
       </c>
-      <c r="N363">
+      <c r="E363">
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>609</v>
       </c>
       <c r="B364" t="s">
         <v>610</v>
       </c>
-      <c r="L364">
+      <c r="C364">
         <v>2018</v>
       </c>
-      <c r="M364">
+      <c r="D364">
         <v>10</v>
       </c>
-      <c r="N364">
+      <c r="E364">
         <v>48</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>244</v>
       </c>
       <c r="B365" t="s">
         <v>611</v>
       </c>
-      <c r="L365">
+      <c r="C365">
         <v>2019</v>
       </c>
-      <c r="M365">
+      <c r="D365">
         <v>12</v>
       </c>
-      <c r="N365">
+      <c r="E365">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N365" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:E365" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Rapper's Best Friend 6: An Instrumental Series"/>
